--- a/100runs/run020/NotionalETEOutput020.xlsx
+++ b/100runs/run020/NotionalETEOutput020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,28 +49,19 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
-  </si>
-  <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_401.MISSILE_HIGHWIND_401</t>
+    <t>MISSILE_HELLMASKER_491.MISSILE_HELLMASKER_491</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_350.MISSILE_HIGHWIND_350</t>
+    <t>MISSILE_BRAVER_425.MISSILE_BRAVER_425</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_401.MISSILE_HELLMASKER_401</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER_310.MISSILE_BRAVER_310</t>
-  </si>
-  <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_HELLMASKER_421.MISSILE_HELLMASKER_421</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
@@ -434,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K213"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>191.9233452733503</v>
+        <v>1116581.667444078</v>
       </c>
       <c r="G2">
-        <v>-102.8782215658746</v>
+        <v>4841121.159203324</v>
       </c>
       <c r="H2">
-        <v>657.3309200006054</v>
+        <v>3985231.973084974</v>
       </c>
       <c r="I2">
-        <v>-1518.196632349223</v>
+        <v>1114861.663857602</v>
       </c>
       <c r="J2">
-        <v>1182.755116774608</v>
+        <v>4843224.808781429</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984364.637324753</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>191.9233452733503</v>
+        <v>1116581.667444078</v>
       </c>
       <c r="G3">
-        <v>-102.8782215658746</v>
+        <v>4841121.159203324</v>
       </c>
       <c r="H3">
-        <v>657.3309200006054</v>
+        <v>3985231.973084974</v>
       </c>
       <c r="I3">
-        <v>-1488.223388267822</v>
+        <v>1114891.277862205</v>
       </c>
       <c r="J3">
-        <v>1153.983659312355</v>
+        <v>4843176.157177783</v>
       </c>
       <c r="K3">
-        <v>200.6127425707374</v>
+        <v>3984668.432883353</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>191.9233452733503</v>
+        <v>1116581.667444078</v>
       </c>
       <c r="G4">
-        <v>-102.8782215658746</v>
+        <v>4841121.159203324</v>
       </c>
       <c r="H4">
-        <v>657.3309200006054</v>
+        <v>3985231.973084974</v>
       </c>
       <c r="I4">
-        <v>-1457.512080625796</v>
+        <v>1114921.621084428</v>
       </c>
       <c r="J4">
-        <v>1125.212201850102</v>
+        <v>4843127.505574136</v>
       </c>
       <c r="K4">
-        <v>391.2220142210986</v>
+        <v>3984957.079802853</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>191.9233452733503</v>
+        <v>1116581.667444078</v>
       </c>
       <c r="G5">
-        <v>-102.8782215658746</v>
+        <v>4841121.159203324</v>
       </c>
       <c r="H5">
-        <v>657.3309200006054</v>
+        <v>3985231.973084974</v>
       </c>
       <c r="I5">
-        <v>-1426.044535286971</v>
+        <v>1114952.711480582</v>
       </c>
       <c r="J5">
-        <v>1096.440744387849</v>
+        <v>4843078.853970489</v>
       </c>
       <c r="K5">
-        <v>571.8278149510849</v>
+        <v>3985230.578083252</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -623,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>191.9233452733503</v>
+        <v>1116581.667444078</v>
       </c>
       <c r="G6">
-        <v>-102.8782215658746</v>
+        <v>4841121.159203324</v>
       </c>
       <c r="H6">
-        <v>657.3309200006054</v>
+        <v>3985231.973084974</v>
       </c>
       <c r="I6">
-        <v>-1393.802130593787</v>
+        <v>1114984.567449139</v>
       </c>
       <c r="J6">
-        <v>1067.669286925597</v>
+        <v>4843030.202366843</v>
       </c>
       <c r="K6">
-        <v>742.430144760695</v>
+        <v>3985488.92772455</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -658,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>191.9233452733503</v>
+        <v>1116581.667444078</v>
       </c>
       <c r="G7">
-        <v>-102.8782215658746</v>
+        <v>4841121.159203324</v>
       </c>
       <c r="H7">
-        <v>657.3309200006054</v>
+        <v>3985231.973084974</v>
       </c>
       <c r="I7">
-        <v>-1360.765786347502</v>
+        <v>1115017.207841615</v>
       </c>
       <c r="J7">
-        <v>1038.897829463344</v>
+        <v>4842981.550763197</v>
       </c>
       <c r="K7">
-        <v>903.0290036499306</v>
+        <v>3985732.128726748</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>191.9233452733503</v>
+        <v>1116581.667444078</v>
       </c>
       <c r="G8">
-        <v>-102.8782215658746</v>
+        <v>4841121.159203324</v>
       </c>
       <c r="H8">
-        <v>657.3309200006054</v>
+        <v>3985231.973084974</v>
       </c>
       <c r="I8">
-        <v>-1326.915952517031</v>
+        <v>1115050.651973727</v>
       </c>
       <c r="J8">
-        <v>1010.126372001091</v>
+        <v>4842932.89915955</v>
       </c>
       <c r="K8">
-        <v>1053.62439161879</v>
+        <v>3985960.181089845</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -728,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>191.9233452733503</v>
+        <v>1116581.667444078</v>
       </c>
       <c r="G9">
-        <v>-102.8782215658746</v>
+        <v>4841121.159203324</v>
       </c>
       <c r="H9">
-        <v>657.3309200006054</v>
+        <v>3985231.973084974</v>
       </c>
       <c r="I9">
-        <v>-1292.232597669762</v>
+        <v>1115084.919636825</v>
       </c>
       <c r="J9">
-        <v>981.3549145388386</v>
+        <v>4842884.247555903</v>
       </c>
       <c r="K9">
-        <v>1194.216308667275</v>
+        <v>3986173.084813842</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>191.9233452733503</v>
+        <v>1116581.667444078</v>
       </c>
       <c r="G10">
-        <v>-85.89013135392686</v>
+        <v>4841137.672010925</v>
       </c>
       <c r="H10">
-        <v>657.3309200006054</v>
+        <v>3985231.973084974</v>
       </c>
       <c r="I10">
-        <v>-1256.69519711748</v>
+        <v>1115120.0311096</v>
       </c>
       <c r="J10">
-        <v>952.583457076586</v>
+        <v>4842835.595952258</v>
       </c>
       <c r="K10">
-        <v>1324.804754795383</v>
+        <v>3986370.839898737</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>148.9549050299125</v>
+        <v>1116532.986742381</v>
       </c>
       <c r="G11">
-        <v>-68.90204114197913</v>
+        <v>4841154.184818523</v>
       </c>
       <c r="H11">
-        <v>809.8272702242956</v>
+        <v>3985431.227673979</v>
       </c>
       <c r="I11">
-        <v>-1220.282720770407</v>
+        <v>1115156.00717009</v>
       </c>
       <c r="J11">
-        <v>923.8119996143333</v>
+        <v>4842786.944348611</v>
       </c>
       <c r="K11">
-        <v>1445.389730003116</v>
+        <v>3986553.446344533</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>123.713101916541</v>
+        <v>1116504.389272223</v>
       </c>
       <c r="G12">
-        <v>-51.9139509300314</v>
+        <v>4841170.697626122</v>
       </c>
       <c r="H12">
-        <v>900.661895376957</v>
+        <v>3985549.913897456</v>
       </c>
       <c r="I12">
-        <v>-1182.973620692151</v>
+        <v>1115192.869107973</v>
       </c>
       <c r="J12">
-        <v>895.0405421520805</v>
+        <v>4842738.292744963</v>
       </c>
       <c r="K12">
-        <v>1555.971234290474</v>
+        <v>3986720.904151227</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -868,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>107.7786239590106</v>
+        <v>1116486.336451042</v>
       </c>
       <c r="G13">
-        <v>-34.92586071808366</v>
+        <v>4841187.210433722</v>
       </c>
       <c r="H13">
-        <v>965.5752626959501</v>
+        <v>3985634.730919681</v>
       </c>
       <c r="I13">
-        <v>-1144.74581834821</v>
+        <v>1115230.638737164</v>
       </c>
       <c r="J13">
-        <v>866.2690846898279</v>
+        <v>4842689.641141318</v>
       </c>
       <c r="K13">
-        <v>1656.549267657457</v>
+        <v>3986873.213318821</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>96.66598371327225</v>
+        <v>1116473.746486831</v>
       </c>
       <c r="G14">
-        <v>-17.93777050613592</v>
+        <v>4841203.723241321</v>
       </c>
       <c r="H14">
-        <v>1016.123267049888</v>
+        <v>3985700.777889445</v>
       </c>
       <c r="I14">
-        <v>-1105.576691540484</v>
+        <v>1115269.338408726</v>
       </c>
       <c r="J14">
-        <v>837.4976272275751</v>
+        <v>4842640.989537671</v>
       </c>
       <c r="K14">
-        <v>1747.123830104063</v>
+        <v>3987010.373847314</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>88.37562130434594</v>
+        <v>1116464.353996503</v>
       </c>
       <c r="G15">
-        <v>-0.949680294188199</v>
+        <v>4841220.23604892</v>
       </c>
       <c r="H15">
-        <v>1057.526003476374</v>
+        <v>3985754.875480754</v>
       </c>
       <c r="I15">
-        <v>-1065.443061020053</v>
+        <v>1115308.991024097</v>
       </c>
       <c r="J15">
-        <v>808.7261697653225</v>
+        <v>4842592.337934025</v>
       </c>
       <c r="K15">
-        <v>1827.694921630294</v>
+        <v>3987132.385736707</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -973,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>81.89371561535344</v>
+        <v>1116457.01038069</v>
       </c>
       <c r="G16">
-        <v>16.03840991775954</v>
+        <v>4841236.748856519</v>
       </c>
       <c r="H16">
-        <v>1092.59109897633</v>
+        <v>3985800.692191659</v>
       </c>
       <c r="I16">
-        <v>-1024.321176770319</v>
+        <v>1115349.620048642</v>
       </c>
       <c r="J16">
-        <v>779.9547123030698</v>
+        <v>4842543.686330378</v>
       </c>
       <c r="K16">
-        <v>1898.26254223615</v>
+        <v>3987239.248986999</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1008,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>76.64938194992961</v>
+        <v>1116451.06886079</v>
       </c>
       <c r="G17">
-        <v>33.02650012970728</v>
+        <v>4841253.261664119</v>
       </c>
       <c r="H17">
-        <v>1123.003683016903</v>
+        <v>3985840.429843902</v>
       </c>
       <c r="I17">
-        <v>-982.1867039523759</v>
+        <v>1115391.249525539</v>
       </c>
       <c r="J17">
-        <v>751.1832548408171</v>
+        <v>4842495.034726731</v>
       </c>
       <c r="K17">
-        <v>1958.826691921631</v>
+        <v>3987330.963598189</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1043,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>72.29471634685835</v>
+        <v>1116446.135282191</v>
       </c>
       <c r="G18">
-        <v>50.014590341655</v>
+        <v>4841269.774471719</v>
       </c>
       <c r="H18">
-        <v>1149.854985287059</v>
+        <v>3985875.514258645</v>
       </c>
       <c r="I18">
-        <v>-939.0147085042951</v>
+        <v>1115433.904090005</v>
       </c>
       <c r="J18">
-        <v>722.4117973785644</v>
+        <v>4842446.383123086</v>
       </c>
       <c r="K18">
-        <v>2009.387370686736</v>
+        <v>3987407.52957028</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1078,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>68.60446489613162</v>
+        <v>1116441.954445534</v>
       </c>
       <c r="G19">
-        <v>67.00268055360276</v>
+        <v>4841286.287279317</v>
       </c>
       <c r="H19">
-        <v>1173.892304076297</v>
+        <v>3985906.921869838</v>
       </c>
       <c r="I19">
-        <v>-894.7796423858125</v>
+        <v>1115477.608983881</v>
       </c>
       <c r="J19">
-        <v>693.6403399163116</v>
+        <v>4842397.731519439</v>
       </c>
       <c r="K19">
-        <v>2049.944578531465</v>
+        <v>3987468.94690327</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1113,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>65.4256732936138</v>
+        <v>1116438.353062639</v>
       </c>
       <c r="G20">
-        <v>83.99077076555048</v>
+        <v>4841302.800086916</v>
       </c>
       <c r="H20">
-        <v>1195.649895248067</v>
+        <v>3985935.350746203</v>
       </c>
       <c r="I20">
-        <v>-849.4553284596768</v>
+        <v>1115522.39007056</v>
       </c>
       <c r="J20">
-        <v>664.8688824540591</v>
+        <v>4842349.079915792</v>
       </c>
       <c r="K20">
-        <v>2080.498315455819</v>
+        <v>3987515.215597159</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1148,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>62.65042397094036</v>
+        <v>1116435.208869281</v>
       </c>
       <c r="G21">
-        <v>100.9788609774982</v>
+        <v>4841319.312894517</v>
       </c>
       <c r="H21">
-        <v>1215.522970454958</v>
+        <v>3985961.317278692</v>
       </c>
       <c r="I21">
-        <v>-803.0149450007146</v>
+        <v>1115568.273850301</v>
       </c>
       <c r="J21">
-        <v>636.0974249918063</v>
+        <v>4842300.428312146</v>
       </c>
       <c r="K21">
-        <v>2101.048581459797</v>
+        <v>3987546.335651947</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1183,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>60.20014112062305</v>
+        <v>1116432.432843718</v>
       </c>
       <c r="G22">
-        <v>117.966951189446</v>
+        <v>4841335.825702115</v>
       </c>
       <c r="H22">
-        <v>1233.812118624977</v>
+        <v>3985985.214222432</v>
       </c>
       <c r="I22">
-        <v>-755.4310098234445</v>
+        <v>1115615.287475905</v>
       </c>
       <c r="J22">
-        <v>607.3259675295536</v>
+        <v>4842251.7767085</v>
       </c>
       <c r="K22">
-        <v>2111.595376543401</v>
+        <v>3987562.307067635</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1218,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>58.01608903975659</v>
+        <v>1116429.958441872</v>
       </c>
       <c r="G23">
-        <v>134.9550414013937</v>
+        <v>4841352.338509714</v>
       </c>
       <c r="H23">
-        <v>1250.751292532301</v>
+        <v>3986007.347264502</v>
       </c>
       <c r="I23">
-        <v>-706.6753640188517</v>
+        <v>1115663.458768788</v>
       </c>
       <c r="J23">
-        <v>578.554510067301</v>
+        <v>4842203.125104853</v>
       </c>
       <c r="K23">
-        <v>2112.138700706628</v>
+        <v>3987563.129844222</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1253,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>56.05337331993851</v>
+        <v>1116427.734801034</v>
       </c>
       <c r="G24">
-        <v>151.9431316133414</v>
+        <v>4841368.851317314</v>
       </c>
       <c r="H24">
-        <v>1266.526157019737</v>
+        <v>3986027.958998065</v>
       </c>
       <c r="I24">
-        <v>-656.7191552906928</v>
+        <v>1115712.816235442</v>
       </c>
       <c r="J24">
-        <v>549.7830526050482</v>
+        <v>4842154.473501206</v>
       </c>
       <c r="K24">
-        <v>2102.67855394948</v>
+        <v>3987548.803981708</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1288,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>54.27701660405506</v>
+        <v>1116425.722293927</v>
       </c>
       <c r="G25">
-        <v>168.9312218252892</v>
+        <v>4841385.364124913</v>
       </c>
       <c r="H25">
-        <v>1281.286526707693</v>
+        <v>3986047.24517371</v>
       </c>
       <c r="I25">
-        <v>-605.5328208814717</v>
+        <v>1115763.389084304</v>
       </c>
       <c r="J25">
-        <v>521.0115951427955</v>
+        <v>4842105.82189756</v>
       </c>
       <c r="K25">
-        <v>2083.214936271957</v>
+        <v>3987519.329480094</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1323,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>52.65931213026609</v>
+        <v>1116423.889530427</v>
       </c>
       <c r="G26">
-        <v>185.9193120372369</v>
+        <v>4841401.876932513</v>
       </c>
       <c r="H26">
-        <v>1295.155040294182</v>
+        <v>3986065.36603346</v>
       </c>
       <c r="I26">
-        <v>-553.0860700779881</v>
+        <v>1115815.207243043</v>
       </c>
       <c r="J26">
-        <v>492.2401376805428</v>
+        <v>4842057.170293913</v>
       </c>
       <c r="K26">
-        <v>2053.747847674058</v>
+        <v>3987474.706339379</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1358,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>51.1779913157464</v>
+        <v>1116422.211281548</v>
       </c>
       <c r="G27">
-        <v>202.9074022491846</v>
+        <v>4841418.389740111</v>
       </c>
       <c r="H27">
-        <v>1308.233360297828</v>
+        <v>3986082.454411466</v>
       </c>
       <c r="I27">
-        <v>-499.3478662860948</v>
+        <v>1115868.301376269</v>
       </c>
       <c r="J27">
-        <v>463.46868021829</v>
+        <v>4842008.518690267</v>
       </c>
       <c r="K27">
-        <v>2014.277288155783</v>
+        <v>3987414.934559564</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1393,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>49.81492538761839</v>
+        <v>1116420.667008461</v>
       </c>
       <c r="G28">
-        <v>219.8954924611324</v>
+        <v>4841434.902547711</v>
       </c>
       <c r="H28">
-        <v>1320.606699827178</v>
+        <v>3986098.621648774</v>
       </c>
       <c r="I28">
-        <v>-444.2864086640672</v>
+        <v>1115922.702903681</v>
       </c>
       <c r="J28">
-        <v>434.6972227560374</v>
+        <v>4841959.86708662</v>
       </c>
       <c r="K28">
-        <v>1964.803257717133</v>
+        <v>3987340.014140647</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1428,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>48.55518651537487</v>
+        <v>1116419.239798818</v>
       </c>
       <c r="G29">
-        <v>236.8835826730801</v>
+        <v>4841451.415355311</v>
       </c>
       <c r="H29">
-        <v>1332.34719048157</v>
+        <v>3986113.961993881</v>
       </c>
       <c r="I29">
-        <v>-387.8691133037088</v>
+        <v>1115978.444018656</v>
       </c>
       <c r="J29">
-        <v>405.9257652937847</v>
+        <v>4841911.215482973</v>
       </c>
       <c r="K29">
-        <v>1905.325756358108</v>
+        <v>3987249.945082631</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1463,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>47.38635652487809</v>
+        <v>1116417.915583562</v>
       </c>
       <c r="G30">
-        <v>253.8716728850278</v>
+        <v>4841467.928162909</v>
       </c>
       <c r="H30">
-        <v>1343.5164301191</v>
+        <v>3986128.555931704</v>
       </c>
       <c r="I30">
-        <v>-330.0625939480618</v>
+        <v>1116035.557707306</v>
       </c>
       <c r="J30">
-        <v>377.1543078315319</v>
+        <v>4841862.563879328</v>
       </c>
       <c r="K30">
-        <v>1835.844784078707</v>
+        <v>3987144.727385513</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1498,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>46.29800961388829</v>
+        <v>1116416.682550875</v>
       </c>
       <c r="G31">
-        <v>270.8597630969756</v>
+        <v>4841484.440970508</v>
       </c>
       <c r="H31">
-        <v>1354.167439059733</v>
+        <v>3986142.472739587</v>
       </c>
       <c r="I31">
-        <v>-270.8326422343047</v>
+        <v>1116094.077767997</v>
       </c>
       <c r="J31">
-        <v>348.3828503692793</v>
+        <v>4841813.91227568</v>
       </c>
       <c r="K31">
-        <v>1756.360340878931</v>
+        <v>3987024.361049295</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1533,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>45.28131960302934</v>
+        <v>1116415.530701219</v>
       </c>
       <c r="G32">
-        <v>287.8478533089233</v>
+        <v>4841500.953778109</v>
       </c>
       <c r="H32">
-        <v>1364.346182260897</v>
+        <v>3986155.772476205</v>
       </c>
       <c r="I32">
-        <v>-210.1442074501528</v>
+        <v>1116154.038831343</v>
       </c>
       <c r="J32">
-        <v>319.6113929070266</v>
+        <v>4841765.260672034</v>
       </c>
       <c r="K32">
-        <v>1666.872426758779</v>
+        <v>3986888.846073977</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1568,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>44.32875779351812</v>
+        <v>1116414.451505022</v>
       </c>
       <c r="G33">
-        <v>304.835943520871</v>
+        <v>4841517.466585707</v>
       </c>
       <c r="H33">
-        <v>1374.092768130638</v>
+        <v>3986168.507547955</v>
       </c>
       <c r="I33">
-        <v>-147.9613757917771</v>
+        <v>1116215.476380712</v>
       </c>
       <c r="J33">
-        <v>290.839935444774</v>
+        <v>4841716.609068388</v>
       </c>
       <c r="K33">
-        <v>1567.381041718252</v>
+        <v>3986738.182459557</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1603,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>43.43385773443385</v>
+        <v>1116413.437636178</v>
       </c>
       <c r="G34">
-        <v>321.8240337328187</v>
+        <v>4841533.979393307</v>
       </c>
       <c r="H34">
-        <v>1383.442403061651</v>
+        <v>3986180.723956169</v>
       </c>
       <c r="I34">
-        <v>-84.24734911096996</v>
+        <v>1116278.426773213</v>
       </c>
       <c r="J34">
-        <v>262.0684779825212</v>
+        <v>4841667.957464742</v>
       </c>
       <c r="K34">
-        <v>1457.886185757349</v>
+        <v>3986572.370206037</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1638,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>42.59103007376782</v>
+        <v>1116412.482762283</v>
       </c>
       <c r="G35">
-        <v>338.8121239447665</v>
+        <v>4841550.492200905</v>
       </c>
       <c r="H35">
-        <v>1392.426159085915</v>
+        <v>3986192.462300147</v>
       </c>
       <c r="I35">
-        <v>-18.96442313897796</v>
+        <v>1116342.927261215</v>
       </c>
       <c r="J35">
-        <v>233.2970205202685</v>
+        <v>4841619.305861094</v>
       </c>
       <c r="K35">
-        <v>1338.38785887607</v>
+        <v>3986391.409313416</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1673,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>41.7954153657687</v>
+        <v>1116411.58137787</v>
       </c>
       <c r="G36">
-        <v>355.8002141567143</v>
+        <v>4841567.005008505</v>
       </c>
       <c r="H36">
-        <v>1401.071596905414</v>
+        <v>3986203.758591219</v>
       </c>
       <c r="I36">
-        <v>47.92603482588392</v>
+        <v>1116409.016014395</v>
       </c>
       <c r="J36">
-        <v>204.5255630580159</v>
+        <v>4841570.654257448</v>
       </c>
       <c r="K36">
-        <v>1208.886061074417</v>
+        <v>3986195.299781695</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1708,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>41.04276597250703</v>
+        <v>1116410.728670618</v>
       </c>
       <c r="G37">
-        <v>372.788304368662</v>
+        <v>4841583.517816105</v>
       </c>
       <c r="H37">
-        <v>1409.40327581123</v>
+        <v>3986214.644919014</v>
       </c>
       <c r="I37">
-        <v>116.4636087800375</v>
+        <v>1116476.732142322</v>
       </c>
       <c r="J37">
-        <v>175.7541055957631</v>
+        <v>4841522.002653802</v>
       </c>
       <c r="K37">
-        <v>1069.380792352388</v>
+        <v>3985984.041610872</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1743,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>40.32935050140616</v>
+        <v>1116409.92041308</v>
       </c>
       <c r="G38">
-        <v>389.7763945806097</v>
+        <v>4841600.030623703</v>
       </c>
       <c r="H38">
-        <v>1417.443174272597</v>
+        <v>3986225.150001012</v>
       </c>
       <c r="I38">
-        <v>186.6888574394008</v>
+        <v>1116546.115717601</v>
       </c>
       <c r="J38">
-        <v>146.9826481335105</v>
+        <v>4841473.351050155</v>
       </c>
       <c r="K38">
-        <v>919.8720527099834</v>
+        <v>3985757.63480095</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1778,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>39.65187586851804</v>
+        <v>1116409.152874386</v>
       </c>
       <c r="G39">
-        <v>406.7644847925575</v>
+        <v>4841616.543431303</v>
       </c>
       <c r="H39">
-        <v>1425.21103934106</v>
+        <v>3986235.299639082</v>
       </c>
       <c r="I39">
-        <v>258.6433382409562</v>
+        <v>1116617.20779959</v>
       </c>
       <c r="J39">
-        <v>118.2111906712578</v>
+        <v>4841424.699446509</v>
       </c>
       <c r="K39">
-        <v>760.3598421472028</v>
+        <v>3985516.079351926</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1813,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>39.00742327135727</v>
+        <v>1116408.422747705</v>
       </c>
       <c r="G40">
-        <v>423.7525750045052</v>
+        <v>4841633.056238903</v>
       </c>
       <c r="H40">
-        <v>1432.724678855315</v>
+        <v>3986245.117101278</v>
       </c>
       <c r="I40">
-        <v>332.3696319353419</v>
+        <v>1116690.050458694</v>
       </c>
       <c r="J40">
-        <v>89.43973320900501</v>
+        <v>4841376.047842862</v>
       </c>
       <c r="K40">
-        <v>590.8441606640471</v>
+        <v>3985259.375263802</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1848,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>38.39339523049933</v>
+        <v>1116407.727090248</v>
       </c>
       <c r="G41">
-        <v>440.740665216453</v>
+        <v>4841649.569046501</v>
       </c>
       <c r="H41">
-        <v>1440.000207327993</v>
+        <v>3986254.623443124</v>
       </c>
       <c r="I41">
-        <v>407.9113677850042</v>
+        <v>1116764.686801265</v>
       </c>
       <c r="J41">
-        <v>60.66827574675239</v>
+        <v>4841327.396239216</v>
       </c>
       <c r="K41">
-        <v>411.3250082605163</v>
+        <v>3984987.522536577</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1883,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>37.80747150802281</v>
+        <v>1116407.063273321</v>
       </c>
       <c r="G42">
-        <v>457.7287554284006</v>
+        <v>4841666.081854101</v>
       </c>
       <c r="H42">
-        <v>1447.052254054713</v>
+        <v>3986263.837779534</v>
       </c>
       <c r="I42">
-        <v>485.3132493828435</v>
+        <v>1116841.160995107</v>
       </c>
       <c r="J42">
-        <v>31.89681828449965</v>
+        <v>4841278.74463557</v>
       </c>
       <c r="K42">
-        <v>221.8023849366094</v>
+        <v>3984700.521170252</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1918,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>37.24757219677734</v>
+        <v>1116406.428940513</v>
       </c>
       <c r="G43">
-        <v>474.7168456403484</v>
+        <v>4841682.594661701</v>
       </c>
       <c r="H43">
-        <v>1453.894140203214</v>
+        <v>3986272.777516194</v>
       </c>
       <c r="I43">
-        <v>564.6210811066036</v>
+        <v>1116919.518295618</v>
       </c>
       <c r="J43">
-        <v>3.1253608222469</v>
+        <v>4841230.093031922</v>
       </c>
       <c r="K43">
-        <v>22.27629069232723</v>
+        <v>3984398.371164826</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1953,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>36.71182664182429</v>
+        <v>1116405.821972483</v>
       </c>
       <c r="G44">
-        <v>491.7049358522962</v>
+        <v>4841699.107469299</v>
       </c>
       <c r="H44">
-        <v>1460.538030270774</v>
+        <v>3986281.458547463</v>
       </c>
       <c r="I44">
-        <v>645.8817952246932</v>
+        <v>1116999.805072566</v>
       </c>
       <c r="J44">
-        <v>-25.64609664000571</v>
+        <v>4841181.441428276</v>
       </c>
       <c r="K44">
-        <v>-187.2532744723298</v>
+        <v>3984081.072520298</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1988,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>36.19854713562944</v>
+        <v>1116405.240457157</v>
       </c>
       <c r="G45">
-        <v>508.6930260642438</v>
+        <v>4841715.620276899</v>
       </c>
       <c r="H45">
-        <v>1466.995062236836</v>
+        <v>3986289.895426435</v>
       </c>
       <c r="I45">
-        <v>729.143479669455</v>
+        <v>1117082.068837534</v>
       </c>
       <c r="J45">
-        <v>-54.41755410225846</v>
+        <v>4841132.78982463</v>
       </c>
       <c r="K45">
-        <v>-406.786310557363</v>
+        <v>3983748.625236671</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2023,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>35.70620654415043</v>
+        <v>1116404.682664383</v>
       </c>
       <c r="G46">
-        <v>525.6811162761917</v>
+        <v>4841732.133084497</v>
       </c>
       <c r="H46">
-        <v>1473.275459908884</v>
+        <v>3986298.101511729</v>
       </c>
       <c r="I46">
-        <v>814.4554064943246</v>
+        <v>1117166.358272034</v>
       </c>
       <c r="J46">
-        <v>-83.1890115645112</v>
+        <v>4841084.138220983</v>
       </c>
       <c r="K46">
-        <v>-636.3228175627722</v>
+        <v>3983401.029313943</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2058,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>35.23341918809979</v>
+        <v>1116404.147024269</v>
       </c>
       <c r="G47">
-        <v>542.6692064881394</v>
+        <v>4841748.645892097</v>
       </c>
       <c r="H47">
-        <v>1479.388630307318</v>
+        <v>3986306.089094734</v>
       </c>
       <c r="I47">
-        <v>901.8680610317228</v>
+        <v>1117252.723256313</v>
       </c>
       <c r="J47">
-        <v>-111.960469026764</v>
+        <v>4841035.486617337</v>
       </c>
       <c r="K47">
-        <v>-875.8627954885565</v>
+        <v>3983038.284752115</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2093,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>34.77892443420927</v>
+        <v>1116403.632108591</v>
       </c>
       <c r="G48">
-        <v>559.657296700087</v>
+        <v>4841765.158699697</v>
       </c>
       <c r="H48">
-        <v>1485.343248418265</v>
+        <v>3986313.869510347</v>
       </c>
       <c r="I48">
-        <v>991.4331717689365</v>
+        <v>1117341.214898875</v>
       </c>
       <c r="J48">
-        <v>-140.7319264890164</v>
+        <v>4840986.83501369</v>
       </c>
       <c r="K48">
-        <v>-1125.406244334715</v>
+        <v>3982660.391551185</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2128,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>34.34157255400992</v>
+        <v>1116403.136614775</v>
       </c>
       <c r="G49">
-        <v>576.6453869120348</v>
+        <v>4841781.671507295</v>
       </c>
       <c r="H49">
-        <v>1491.147331230934</v>
+        <v>3986321.45323372</v>
       </c>
       <c r="I49">
-        <v>1083.203740959664</v>
+        <v>1117431.885566725</v>
       </c>
       <c r="J49">
-        <v>-169.5033839512692</v>
+        <v>4840938.183410044</v>
       </c>
       <c r="K49">
-        <v>-1384.95316410125</v>
+        <v>3982267.349711155</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2163,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>33.92031248894783</v>
+        <v>1116402.659352034</v>
       </c>
       <c r="G50">
-        <v>593.6334771239825</v>
+        <v>4841798.184314895</v>
       </c>
       <c r="H50">
-        <v>1496.808302645258</v>
+        <v>3986328.849965057</v>
       </c>
       <c r="I50">
-        <v>1177.234075989337</v>
+        <v>1117524.788916355</v>
       </c>
       <c r="J50">
-        <v>-198.2748414135219</v>
+        <v>4840889.531806397</v>
       </c>
       <c r="K50">
-        <v>-1654.50355478816</v>
+        <v>3981859.159232024</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2198,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>33.51418122543787</v>
+        <v>1116402.199229331</v>
       </c>
       <c r="G51">
-        <v>610.6215673359302</v>
+        <v>4841814.697122495</v>
       </c>
       <c r="H51">
-        <v>1502.333050568305</v>
+        <v>3986336.068704228</v>
       </c>
       <c r="I51">
-        <v>1273.579821512794</v>
+        <v>1117619.9799255</v>
       </c>
       <c r="J51">
-        <v>-227.0462988757747</v>
+        <v>4840840.880202751</v>
       </c>
       <c r="K51">
-        <v>-1934.057416395447</v>
+        <v>3981435.820113793</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2233,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>33.12229453538321</v>
+        <v>1116401.755244887</v>
       </c>
       <c r="G52">
-        <v>627.6096575478781</v>
+        <v>4841831.209930093</v>
       </c>
       <c r="H52">
-        <v>1507.727977301068</v>
+        <v>3986343.117816599</v>
       </c>
       <c r="I52">
-        <v>1372.297992383306</v>
+        <v>1117717.514925672</v>
       </c>
       <c r="J52">
-        <v>-255.8177563380274</v>
+        <v>4840792.228599104</v>
       </c>
       <c r="K52">
-        <v>-2223.614748923108</v>
+        <v>3980997.33235646</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2268,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>32.74383887953586</v>
+        <v>1116401.32647701</v>
       </c>
       <c r="G53">
-        <v>644.5977477598258</v>
+        <v>4841847.722737693</v>
       </c>
       <c r="H53">
-        <v>1512.999044140093</v>
+        <v>3986350.005091311</v>
       </c>
       <c r="I53">
-        <v>1473.44700739245</v>
+        <v>1117817.451635492</v>
       </c>
       <c r="J53">
-        <v>-284.5892138002799</v>
+        <v>4840743.576995458</v>
       </c>
       <c r="K53">
-        <v>-2523.175552371143</v>
+        <v>3980543.695960028</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2303,31 +2294,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>32.37806430499059</v>
+        <v>1116400.912076049</v>
       </c>
       <c r="G54">
-        <v>661.5858379717735</v>
+        <v>4841864.235545292</v>
       </c>
       <c r="H54">
-        <v>1518.151810973161</v>
+        <v>3986356.737793019</v>
       </c>
       <c r="I54">
-        <v>1577.086723840809</v>
+        <v>1117919.849194851</v>
       </c>
       <c r="J54">
-        <v>-313.3606712625327</v>
+        <v>4840694.925391811</v>
       </c>
       <c r="K54">
-        <v>-2832.739826739556</v>
+        <v>3980074.910924495</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,34 +2326,34 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>206.5400435570616</v>
+        <v>1116579.507305931</v>
       </c>
       <c r="G55">
-        <v>-72.44797961146318</v>
+        <v>4841125.786193537</v>
       </c>
       <c r="H55">
-        <v>706.1634751238388</v>
+        <v>3985221.680958375</v>
       </c>
       <c r="I55">
-        <v>-1342.826491945937</v>
+        <v>1114860.798356835</v>
       </c>
       <c r="J55">
-        <v>2859.550092838453</v>
+        <v>4843228.839849248</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984373.080832598</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,34 +2361,34 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>206.5400435570616</v>
+        <v>1116579.507305931</v>
       </c>
       <c r="G56">
-        <v>-72.44797961146318</v>
+        <v>4841125.786193537</v>
       </c>
       <c r="H56">
-        <v>706.1634751238388</v>
+        <v>3985221.680958375</v>
       </c>
       <c r="I56">
-        <v>-1316.315521400714</v>
+        <v>1114890.412338448</v>
       </c>
       <c r="J56">
-        <v>2789.989266010966</v>
+        <v>4843180.188205108</v>
       </c>
       <c r="K56">
-        <v>335.25395189853</v>
+        <v>3984676.87703499</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,34 +2396,34 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>206.5400435570616</v>
+        <v>1116579.507305931</v>
       </c>
       <c r="G57">
-        <v>-72.44797961146318</v>
+        <v>4841125.786193537</v>
       </c>
       <c r="H57">
-        <v>706.1634751238388</v>
+        <v>3985221.680958375</v>
       </c>
       <c r="I57">
-        <v>-1289.151742595461</v>
+        <v>1114920.755537114</v>
       </c>
       <c r="J57">
-        <v>2720.428439183479</v>
+        <v>4843131.536560968</v>
       </c>
       <c r="K57">
-        <v>653.7906050064529</v>
+        <v>3984965.524566179</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,34 +2431,34 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>206.5400435570616</v>
+        <v>1116579.507305931</v>
       </c>
       <c r="G58">
-        <v>-72.44797961146318</v>
+        <v>4841125.786193537</v>
       </c>
       <c r="H58">
-        <v>706.1634751238388</v>
+        <v>3985221.680958375</v>
       </c>
       <c r="I58">
-        <v>-1261.319080727347</v>
+        <v>1114951.845909132</v>
       </c>
       <c r="J58">
-        <v>2650.867612355993</v>
+        <v>4843082.884916828</v>
       </c>
       <c r="K58">
-        <v>955.6099593237709</v>
+        <v>3985239.023426164</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,34 +2466,34 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>206.5400435570616</v>
+        <v>1116579.507305931</v>
       </c>
       <c r="G59">
-        <v>-72.44797961146318</v>
+        <v>4841125.786193537</v>
       </c>
       <c r="H59">
-        <v>706.1634751238388</v>
+        <v>3985221.680958375</v>
       </c>
       <c r="I59">
-        <v>-1232.801065166311</v>
+        <v>1114983.701852958</v>
       </c>
       <c r="J59">
-        <v>2581.306785528506</v>
+        <v>4843034.233272688</v>
       </c>
       <c r="K59">
-        <v>1240.712014850482</v>
+        <v>3985497.373614947</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,34 +2501,34 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>206.5400435570616</v>
+        <v>1116579.507305931</v>
       </c>
       <c r="G60">
-        <v>-72.44797961146318</v>
+        <v>4841125.786193537</v>
       </c>
       <c r="H60">
-        <v>706.1634751238388</v>
+        <v>3985221.680958375</v>
       </c>
       <c r="I60">
-        <v>-1203.580819708176</v>
+        <v>1115016.342220095</v>
       </c>
       <c r="J60">
-        <v>2511.745958701019</v>
+        <v>4842985.581628549</v>
       </c>
       <c r="K60">
-        <v>1509.096771586589</v>
+        <v>3985740.575132527</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,34 +2536,34 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>206.5400435570616</v>
+        <v>1116579.507305931</v>
       </c>
       <c r="G61">
-        <v>-72.44797961146318</v>
+        <v>4841125.786193537</v>
       </c>
       <c r="H61">
-        <v>706.1634751238388</v>
+        <v>3985221.680958375</v>
       </c>
       <c r="I61">
-        <v>-1173.641052587768</v>
+        <v>1115049.786326243</v>
       </c>
       <c r="J61">
-        <v>2442.185131873533</v>
+        <v>4842936.929984408</v>
       </c>
       <c r="K61">
-        <v>1760.76422953209</v>
+        <v>3985968.627978904</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,34 +2571,34 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>206.5400435570616</v>
+        <v>1116579.507305931</v>
       </c>
       <c r="G62">
-        <v>-72.44797961146318</v>
+        <v>4841125.786193537</v>
       </c>
       <c r="H62">
-        <v>706.1634751238388</v>
+        <v>3985221.680958375</v>
       </c>
       <c r="I62">
-        <v>-1142.9640462461</v>
+        <v>1115084.053962737</v>
       </c>
       <c r="J62">
-        <v>2372.624305046046</v>
+        <v>4842888.278340269</v>
       </c>
       <c r="K62">
-        <v>1995.714388686984</v>
+        <v>3986181.532154078</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,34 +2606,34 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>206.5400435570616</v>
+        <v>1116579.507305931</v>
       </c>
       <c r="G63">
-        <v>-60.48477890114749</v>
+        <v>4841142.299016918</v>
       </c>
       <c r="H63">
-        <v>706.1634751238388</v>
+        <v>3985221.680958375</v>
       </c>
       <c r="I63">
-        <v>-1111.531646845598</v>
+        <v>1115119.165408255</v>
       </c>
       <c r="J63">
-        <v>2303.063478218559</v>
+        <v>4842839.626696129</v>
       </c>
       <c r="K63">
-        <v>2213.947249051273</v>
+        <v>3986379.287658048</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,34 +2641,34 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>160.2991680303316</v>
+        <v>1116530.826698413</v>
       </c>
       <c r="G64">
-        <v>-48.52157819083178</v>
+        <v>4841158.8118403</v>
       </c>
       <c r="H64">
-        <v>869.9886495391302</v>
+        <v>3985420.935032792</v>
       </c>
       <c r="I64">
-        <v>-1079.325253527135</v>
+        <v>1115155.141440816</v>
       </c>
       <c r="J64">
-        <v>2233.502651391073</v>
+        <v>4842790.97505199</v>
       </c>
       <c r="K64">
-        <v>2415.462810624955</v>
+        <v>3986561.894490815</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,34 +2676,34 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>133.1349733511007</v>
+        <v>1116502.229283578</v>
       </c>
       <c r="G65">
-        <v>-36.55837748051609</v>
+        <v>4841175.324663681</v>
       </c>
       <c r="H65">
-        <v>967.5713017583739</v>
+        <v>3985539.620949754</v>
       </c>
       <c r="I65">
-        <v>-1046.325807402544</v>
+        <v>1115192.003350082</v>
       </c>
       <c r="J65">
-        <v>2163.941824563586</v>
+        <v>4842742.323407849</v>
       </c>
       <c r="K65">
-        <v>2600.261073408032</v>
+        <v>3986729.35265238</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,34 +2711,34 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>115.9869408034189</v>
+        <v>1116484.176497323</v>
       </c>
       <c r="G66">
-        <v>-24.59517677020039</v>
+        <v>4841191.837487063</v>
       </c>
       <c r="H66">
-        <v>1037.30702794014</v>
+        <v>3985624.437752933</v>
       </c>
       <c r="I66">
-        <v>-1012.513780276068</v>
+        <v>1115229.772949951</v>
       </c>
       <c r="J66">
-        <v>2094.380997736099</v>
+        <v>4842693.67176371</v>
       </c>
       <c r="K66">
-        <v>2768.342037400504</v>
+        <v>3986881.662142741</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,34 +2746,34 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>104.0279725126164</v>
+        <v>1116471.586557469</v>
       </c>
       <c r="G67">
-        <v>-12.63197605988469</v>
+        <v>4841208.350310445</v>
       </c>
       <c r="H67">
-        <v>1091.610200556938</v>
+        <v>3985690.484552128</v>
       </c>
       <c r="I67">
-        <v>-977.8691630880975</v>
+        <v>1115268.472591469</v>
       </c>
       <c r="J67">
-        <v>2024.820170908612</v>
+        <v>4842645.02011957</v>
       </c>
       <c r="K67">
-        <v>2919.705702602369</v>
+        <v>3987018.822961899</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,34 +2781,34 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>95.10622403743892</v>
+        <v>1116462.194085311</v>
       </c>
       <c r="G68">
-        <v>-0.6687753495690016</v>
+        <v>4841224.863133826</v>
       </c>
       <c r="H68">
-        <v>1136.088711068107</v>
+        <v>3985744.582003725</v>
       </c>
       <c r="I68">
-        <v>-942.3714540743365</v>
+        <v>1115308.125176057</v>
       </c>
       <c r="J68">
-        <v>1955.259344081126</v>
+        <v>4842596.368475431</v>
       </c>
       <c r="K68">
-        <v>3054.352069013629</v>
+        <v>3987140.835109855</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,34 +2816,34 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>88.13066261508821</v>
+        <v>1116454.850483705</v>
       </c>
       <c r="G69">
-        <v>11.2944253607467</v>
+        <v>4841241.375957208</v>
       </c>
       <c r="H69">
-        <v>1173.758762697164</v>
+        <v>3985790.398596305</v>
       </c>
       <c r="I69">
-        <v>-905.9996466334052</v>
+        <v>1115348.75416906</v>
       </c>
       <c r="J69">
-        <v>1885.698517253639</v>
+        <v>4842547.71683129</v>
       </c>
       <c r="K69">
-        <v>3172.281136634283</v>
+        <v>3987247.698586607</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,34 +2851,34 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>82.48692551712503</v>
+        <v>1116448.908975299</v>
       </c>
       <c r="G70">
-        <v>23.2576260710624</v>
+        <v>4841257.88878059</v>
       </c>
       <c r="H70">
-        <v>1206.430671746517</v>
+        <v>3985830.136145923</v>
       </c>
       <c r="I70">
-        <v>-868.73221689569</v>
+        <v>1115390.383613639</v>
       </c>
       <c r="J70">
-        <v>1816.137690426152</v>
+        <v>4842499.065187152</v>
       </c>
       <c r="K70">
-        <v>3273.49290546433</v>
+        <v>3987339.413392155</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,34 +2886,34 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>77.80061274963043</v>
+        <v>1116443.975406245</v>
       </c>
       <c r="G71">
-        <v>35.22082678137809</v>
+        <v>4841274.401603972</v>
       </c>
       <c r="H71">
-        <v>1235.276734430859</v>
+        <v>3985865.220470059</v>
       </c>
       <c r="I71">
-        <v>-830.5471109860906</v>
+        <v>1115433.038144991</v>
       </c>
       <c r="J71">
-        <v>1746.576863598666</v>
+        <v>4842450.413543012</v>
       </c>
       <c r="K71">
-        <v>3357.987375503773</v>
+        <v>3987415.979526502</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,34 +2921,34 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>73.82931528040356</v>
+        <v>1116439.794577676</v>
       </c>
       <c r="G72">
-        <v>47.1840274916938</v>
+        <v>4841290.914427353</v>
       </c>
       <c r="H72">
-        <v>1261.099765194196</v>
+        <v>3985896.628000139</v>
       </c>
       <c r="I72">
-        <v>-791.4217319731202</v>
+        <v>1115476.743004937</v>
       </c>
       <c r="J72">
-        <v>1677.016036771179</v>
+        <v>4842401.761898872</v>
       </c>
       <c r="K72">
-        <v>3425.764546752609</v>
+        <v>3987477.396989645</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,34 +2956,34 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>70.4084299519004</v>
+        <v>1116436.193201748</v>
       </c>
       <c r="G73">
-        <v>59.14722820200949</v>
+        <v>4841307.427250735</v>
       </c>
       <c r="H73">
-        <v>1284.473709313798</v>
+        <v>3985925.056803085</v>
       </c>
       <c r="I73">
-        <v>-751.3329264966441</v>
+        <v>1115521.524056851</v>
       </c>
       <c r="J73">
-        <v>1607.455209943692</v>
+        <v>4842353.110254732</v>
       </c>
       <c r="K73">
-        <v>3476.82441921084</v>
+        <v>3987523.665781585</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,34 +2991,34 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>67.42182029703905</v>
+        <v>1116433.049014473</v>
       </c>
       <c r="G74">
-        <v>71.11042891232519</v>
+        <v>4841323.940074117</v>
       </c>
       <c r="H74">
-        <v>1305.82313837988</v>
+        <v>3985951.023268514</v>
       </c>
       <c r="I74">
-        <v>-710.2569710663348</v>
+        <v>1115567.407800971</v>
       </c>
       <c r="J74">
-        <v>1537.894383116205</v>
+        <v>4842304.458610592</v>
       </c>
       <c r="K74">
-        <v>3511.166992878464</v>
+        <v>3987554.785902322</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,34 +3026,34 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>64.78492625003885</v>
+        <v>1116430.272994281</v>
       </c>
       <c r="G75">
-        <v>83.07362962264089</v>
+        <v>4841340.452897498</v>
       </c>
       <c r="H75">
-        <v>1325.470971816323</v>
+        <v>3985974.920150538</v>
       </c>
       <c r="I75">
-        <v>-668.1695580227399</v>
+        <v>1115614.421390077</v>
       </c>
       <c r="J75">
-        <v>1468.333556288719</v>
+        <v>4842255.806966453</v>
       </c>
       <c r="K75">
-        <v>3528.792267755483</v>
+        <v>3987570.757351855</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,34 +3061,34 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>62.43453885307801</v>
+        <v>1116427.798597222</v>
       </c>
       <c r="G76">
-        <v>95.03683033295658</v>
+        <v>4841356.96572088</v>
       </c>
       <c r="H76">
-        <v>1343.668542549967</v>
+        <v>3985997.053135449</v>
       </c>
       <c r="I76">
-        <v>-625.0457811526566</v>
+        <v>1115662.592645564</v>
       </c>
       <c r="J76">
-        <v>1398.772729461232</v>
+        <v>4842207.155322313</v>
       </c>
       <c r="K76">
-        <v>3529.700243841896</v>
+        <v>3987571.580130186</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,34 +3096,34 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>60.32234458257908</v>
+        <v>1116425.574960686</v>
       </c>
       <c r="G77">
-        <v>107.0000310432723</v>
+        <v>4841373.478544262</v>
       </c>
       <c r="H77">
-        <v>1360.615308306925</v>
+        <v>3986017.66481578</v>
       </c>
       <c r="I77">
-        <v>-580.8601209502948</v>
+        <v>1115711.9500739</v>
       </c>
       <c r="J77">
-        <v>1329.211902633745</v>
+        <v>4842158.503678173</v>
       </c>
       <c r="K77">
-        <v>3513.890921137704</v>
+        <v>3987557.254237313</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,34 +3131,34 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>58.41070223938785</v>
+        <v>1116423.562457472</v>
       </c>
       <c r="G78">
-        <v>118.963231753588</v>
+        <v>4841389.991367643</v>
       </c>
       <c r="H78">
-        <v>1376.472213308366</v>
+        <v>3986036.950941618</v>
       </c>
       <c r="I78">
-        <v>-535.5864295155114</v>
+        <v>1115762.5228835</v>
       </c>
       <c r="J78">
-        <v>1259.651075806259</v>
+        <v>4842109.852034033</v>
       </c>
       <c r="K78">
-        <v>3481.364299642905</v>
+        <v>3987527.779673238</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,34 +3166,34 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>56.66979494120091</v>
+        <v>1116421.729697518</v>
       </c>
       <c r="G79">
-        <v>130.9264324639037</v>
+        <v>4841406.504191025</v>
       </c>
       <c r="H79">
-        <v>1391.371006976901</v>
+        <v>3986055.071754569</v>
       </c>
       <c r="I79">
-        <v>-489.1979150801793</v>
+        <v>1115814.341002011</v>
       </c>
       <c r="J79">
-        <v>1190.090248978772</v>
+        <v>4842061.200389894</v>
       </c>
       <c r="K79">
-        <v>3432.120379357501</v>
+        <v>3987483.15643796</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,34 +3201,34 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>55.07565815123865</v>
+        <v>1116420.051451885</v>
       </c>
       <c r="G80">
-        <v>142.8896331742194</v>
+        <v>4841423.017014407</v>
       </c>
       <c r="H80">
-        <v>1405.42090425322</v>
+        <v>3986072.160088443</v>
       </c>
       <c r="I80">
-        <v>-441.6671261535278</v>
+        <v>1115867.435094019</v>
       </c>
       <c r="J80">
-        <v>1120.529422151285</v>
+        <v>4842012.548745753</v>
       </c>
       <c r="K80">
-        <v>3366.159160281491</v>
+        <v>3987423.384531478</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,34 +3236,34 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>53.60878242663238</v>
+        <v>1116418.507181786</v>
       </c>
       <c r="G81">
-        <v>154.8528338845351</v>
+        <v>4841439.529837788</v>
       </c>
       <c r="H81">
-        <v>1418.713448655246</v>
+        <v>3986088.327283998</v>
       </c>
       <c r="I81">
-        <v>-392.9659352770818</v>
+        <v>1115921.836579197</v>
       </c>
       <c r="J81">
-        <v>1050.968595323799</v>
+        <v>4841963.897101614</v>
       </c>
       <c r="K81">
-        <v>3283.480642414875</v>
+        <v>3987348.463953794</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,34 +3271,34 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>52.2531030475911</v>
+        <v>1116417.079974904</v>
       </c>
       <c r="G82">
-        <v>166.8160345948508</v>
+        <v>4841456.04266117</v>
       </c>
       <c r="H82">
-        <v>1431.3261303775</v>
+        <v>3986103.667589488</v>
       </c>
       <c r="I82">
-        <v>-343.0655223795767</v>
+        <v>1115977.577650899</v>
       </c>
       <c r="J82">
-        <v>981.4077684963116</v>
+        <v>4841915.245457474</v>
       </c>
       <c r="K82">
-        <v>3184.084825757653</v>
+        <v>3987258.394704906</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,34 +3306,34 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>50.99525608372032</v>
+        <v>1116415.75576221</v>
       </c>
       <c r="G83">
-        <v>178.7792353051665</v>
+        <v>4841472.555484552</v>
       </c>
       <c r="H83">
-        <v>1443.32512333058</v>
+        <v>3986118.261489621</v>
       </c>
       <c r="I83">
-        <v>-291.9363577220089</v>
+        <v>1116034.69129521</v>
       </c>
       <c r="J83">
-        <v>911.8469416688248</v>
+        <v>4841866.593813335</v>
       </c>
       <c r="K83">
-        <v>3067.971710309825</v>
+        <v>3987153.176784816</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,34 +3341,34 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>49.8240217136604</v>
+        <v>1116414.522731909</v>
       </c>
       <c r="G84">
-        <v>190.7424360154822</v>
+        <v>4841489.068307933</v>
       </c>
       <c r="H84">
-        <v>1454.767386668939</v>
+        <v>3986132.178261563</v>
       </c>
       <c r="I84">
-        <v>-239.5481844227175</v>
+        <v>1116093.211310469</v>
       </c>
       <c r="J84">
-        <v>842.2861148413383</v>
+        <v>4841817.942169194</v>
       </c>
       <c r="K84">
-        <v>2935.141296071392</v>
+        <v>3987032.810193522</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,34 +3376,34 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>48.72990156466154</v>
+        <v>1116413.37088448</v>
       </c>
       <c r="G85">
-        <v>202.7056367257979</v>
+        <v>4841505.581131316</v>
       </c>
       <c r="H85">
-        <v>1465.702300047608</v>
+        <v>3986145.477963834</v>
       </c>
       <c r="I85">
-        <v>-185.8700005521669</v>
+        <v>1116153.172327267</v>
       </c>
       <c r="J85">
-        <v>772.7252880138515</v>
+        <v>4841769.290525055</v>
       </c>
       <c r="K85">
-        <v>2785.593583042353</v>
+        <v>3986897.294931025</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,34 +3411,34 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>47.70479355944713</v>
+        <v>1116412.291690371</v>
       </c>
       <c r="G86">
-        <v>214.6688374361136</v>
+        <v>4841522.093954696</v>
       </c>
       <c r="H86">
-        <v>1476.172951494163</v>
+        <v>3986158.213002694</v>
       </c>
       <c r="I86">
-        <v>-130.8700407868272</v>
+        <v>1116214.60982894</v>
       </c>
       <c r="J86">
-        <v>703.164461186365</v>
+        <v>4841720.638880915</v>
       </c>
       <c r="K86">
-        <v>2619.328571222708</v>
+        <v>3986746.630997325</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,34 +3446,34 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>46.74173876838338</v>
+        <v>1116411.277823489</v>
       </c>
       <c r="G87">
-        <v>226.6320381464293</v>
+        <v>4841538.606778079</v>
       </c>
       <c r="H87">
-        <v>1486.217162854275</v>
+        <v>3986170.429379358</v>
       </c>
       <c r="I87">
-        <v>-74.51575761130118</v>
+        <v>1116277.56017257</v>
       </c>
       <c r="J87">
-        <v>633.6036343588781</v>
+        <v>4841671.987236775</v>
       </c>
       <c r="K87">
-        <v>2436.346260612457</v>
+        <v>3986580.818392422</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,34 +3481,34 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>45.83472215976224</v>
+        <v>1116410.322951441</v>
       </c>
       <c r="G88">
-        <v>238.595238856745</v>
+        <v>4841555.11960146</v>
       </c>
       <c r="H88">
-        <v>1495.86831447476</v>
+        <v>3986182.167693022</v>
       </c>
       <c r="I88">
-        <v>-16.77380205756794</v>
+        <v>1116342.060610499</v>
       </c>
       <c r="J88">
-        <v>564.0428075313913</v>
+        <v>4841623.335592635</v>
       </c>
       <c r="K88">
-        <v>2236.6466512116</v>
+        <v>3986399.857116316</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,34 +3516,34 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>44.978514197095</v>
+        <v>1116409.421568772</v>
       </c>
       <c r="G89">
-        <v>250.5584395670607</v>
+        <v>4841571.632424842</v>
       </c>
       <c r="H89">
-        <v>1505.156014518719</v>
+        <v>3986193.46395492</v>
       </c>
       <c r="I89">
-        <v>42.38999603005109</v>
+        <v>1116408.149312372</v>
       </c>
       <c r="J89">
-        <v>494.4819807039048</v>
+        <v>4841574.683948495</v>
       </c>
       <c r="K89">
-        <v>2020.229743020138</v>
+        <v>3986203.747169008</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,34 +3551,34 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>44.16854374641295</v>
+        <v>1116408.56886317</v>
       </c>
       <c r="G90">
-        <v>262.5216402773764</v>
+        <v>4841588.145248224</v>
       </c>
       <c r="H90">
-        <v>1514.106646766083</v>
+        <v>3986204.3502546</v>
       </c>
       <c r="I90">
-        <v>103.0106482158815</v>
+        <v>1116475.865387729</v>
       </c>
       <c r="J90">
-        <v>424.9211538764179</v>
+        <v>4841526.032304357</v>
       </c>
       <c r="K90">
-        <v>1787.09553603807</v>
+        <v>3985992.488550495</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,34 +3586,34 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>43.40079523585218</v>
+        <v>1116407.760607195</v>
       </c>
       <c r="G91">
-        <v>274.4848409876921</v>
+        <v>4841604.658071605</v>
       </c>
       <c r="H91">
-        <v>1522.743822447878</v>
+        <v>3986214.855309469</v>
       </c>
       <c r="I91">
-        <v>165.1240281918111</v>
+        <v>1116545.248909143</v>
       </c>
       <c r="J91">
-        <v>355.3603270489314</v>
+        <v>4841477.380660217</v>
       </c>
       <c r="K91">
-        <v>1537.244030265396</v>
+        <v>3985766.08126078</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,34 +3621,34 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>42.671724783343</v>
+        <v>1116406.993069986</v>
       </c>
       <c r="G92">
-        <v>286.4480416980078</v>
+        <v>4841621.170894987</v>
       </c>
       <c r="H92">
-        <v>1531.088755607319</v>
+        <v>3986225.004921326</v>
       </c>
       <c r="I92">
-        <v>228.7668930063855</v>
+        <v>1116616.340935941</v>
       </c>
       <c r="J92">
-        <v>285.7995002214446</v>
+        <v>4841428.729016077</v>
       </c>
       <c r="K92">
-        <v>1270.675225702116</v>
+        <v>3985524.525299862</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,34 +3656,34 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>41.97819129319635</v>
+        <v>1116406.262944718</v>
       </c>
       <c r="G93">
-        <v>298.4112424083235</v>
+        <v>4841637.683718369</v>
       </c>
       <c r="H93">
-        <v>1539.160577012296</v>
+        <v>3986234.822358168</v>
       </c>
       <c r="I93">
-        <v>293.9769048166574</v>
+        <v>1116689.183538496</v>
       </c>
       <c r="J93">
-        <v>216.2386733939578</v>
+        <v>4841380.077371937</v>
       </c>
       <c r="K93">
-        <v>987.3891223482298</v>
+        <v>3985267.82066774</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,34 +3691,34 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>41.31739946444082</v>
+        <v>1116405.567288606</v>
       </c>
       <c r="G94">
-        <v>310.3744431186391</v>
+        <v>4841654.19654175</v>
       </c>
       <c r="H94">
-        <v>1546.976598308881</v>
+        <v>3986244.328675463</v>
       </c>
       <c r="I94">
-        <v>360.7926531756454</v>
+        <v>1116763.819823124</v>
       </c>
       <c r="J94">
-        <v>146.6778465664713</v>
+        <v>4841331.425727798</v>
       </c>
       <c r="K94">
-        <v>687.3857202037387</v>
+        <v>3984995.967364416</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,34 +3726,34 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>40.68685235205565</v>
+        <v>1116404.903472964</v>
       </c>
       <c r="G95">
-        <v>322.3376438289548</v>
+        <v>4841670.709365132</v>
       </c>
       <c r="H95">
-        <v>1554.552535590626</v>
+        <v>3986253.542988076</v>
       </c>
       <c r="I95">
-        <v>429.2536778686136</v>
+        <v>1116840.293957597</v>
       </c>
       <c r="J95">
-        <v>77.11701973898442</v>
+        <v>4841282.774083658</v>
       </c>
       <c r="K95">
-        <v>370.6650192686409</v>
+        <v>3984708.965389888</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,34 +3761,34 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>40.08431164515256</v>
+        <v>1116404.269141383</v>
       </c>
       <c r="G96">
-        <v>334.3008445392706</v>
+        <v>4841687.222188515</v>
       </c>
       <c r="H96">
-        <v>1561.902699643495</v>
+        <v>3986262.482701648</v>
       </c>
       <c r="I96">
-        <v>499.4004923116577</v>
+        <v>1116918.651197276</v>
       </c>
       <c r="J96">
-        <v>7.556192911497584</v>
+        <v>4841234.122439518</v>
       </c>
       <c r="K96">
-        <v>37.22701954293757</v>
+        <v>3984406.814744158</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,34 +3796,34 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>39.50776422150326</v>
+        <v>1116403.662174527</v>
       </c>
       <c r="G97">
-        <v>346.2640452495863</v>
+        <v>4841703.735011895</v>
       </c>
       <c r="H97">
-        <v>1569.040158654923</v>
+        <v>3986271.163710499</v>
       </c>
       <c r="I97">
-        <v>571.2746075264752</v>
+        <v>1116998.937911896</v>
       </c>
       <c r="J97">
-        <v>-62.00463391598893</v>
+        <v>4841185.470795378</v>
       </c>
       <c r="K97">
-        <v>-312.9282789733707</v>
+        <v>3984089.515427225</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,34 +3831,34 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>38.95539383938304</v>
+        <v>1116403.080660326</v>
       </c>
       <c r="G98">
-        <v>358.2272459599019</v>
+        <v>4841720.247835278</v>
       </c>
       <c r="H98">
-        <v>1575.976878035377</v>
+        <v>3986279.600567682</v>
       </c>
       <c r="I98">
-        <v>644.9185567054844</v>
+        <v>1117081.201613</v>
       </c>
       <c r="J98">
-        <v>-131.5654607434758</v>
+        <v>4841136.819151239</v>
       </c>
       <c r="K98">
-        <v>-679.8008762802857</v>
+        <v>3983757.067439088</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,34 +3866,34 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>38.42555705968251</v>
+        <v>1116402.522868631</v>
       </c>
       <c r="G99">
-        <v>370.1904466702177</v>
+        <v>4841736.760658658</v>
       </c>
       <c r="H99">
-        <v>1582.723841110306</v>
+        <v>3986287.806631783</v>
       </c>
       <c r="I99">
-        <v>720.3759203818363</v>
+        <v>1117165.490982063</v>
       </c>
       <c r="J99">
-        <v>-201.1262875709626</v>
+        <v>4841088.167507098</v>
       </c>
       <c r="K99">
-        <v>-1063.390772377807</v>
+        <v>3983409.470779749</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,34 +3901,34 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>37.91676267110592</v>
+        <v>1116401.987229554</v>
       </c>
       <c r="G100">
-        <v>382.1536473805334</v>
+        <v>4841753.273482041</v>
       </c>
       <c r="H100">
-        <v>1589.291153739657</v>
+        <v>3986295.79419416</v>
       </c>
       <c r="I100">
-        <v>797.6913522192166</v>
+        <v>1117251.855899294</v>
       </c>
       <c r="J100">
-        <v>-270.6871143984494</v>
+        <v>4841039.515862959</v>
       </c>
       <c r="K100">
-        <v>-1463.697967265934</v>
+        <v>3983046.725449206</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,34 +3936,34 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>37.42765403176188</v>
+        <v>1116401.472314872</v>
       </c>
       <c r="G101">
-        <v>394.116848090849</v>
+        <v>4841769.786305423</v>
       </c>
       <c r="H101">
-        <v>1595.688135366898</v>
+        <v>3986303.57458968</v>
       </c>
       <c r="I101">
-        <v>876.9106054366988</v>
+        <v>1117340.347473158</v>
       </c>
       <c r="J101">
-        <v>-340.2479412259356</v>
+        <v>4840990.864218819</v>
       </c>
       <c r="K101">
-        <v>-1880.722460944664</v>
+        <v>3982668.83144746</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,34 +3971,34 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>36.95699385096168</v>
+        <v>1116400.976822014</v>
       </c>
       <c r="G102">
-        <v>406.0800488011648</v>
+        <v>4841786.299128803</v>
       </c>
       <c r="H102">
-        <v>1601.923398556552</v>
+        <v>3986311.158293467</v>
       </c>
       <c r="I102">
-        <v>958.0805598842859</v>
+        <v>1117431.018070617</v>
       </c>
       <c r="J102">
-        <v>-409.8087680534225</v>
+        <v>4840942.212574679</v>
       </c>
       <c r="K102">
-        <v>-2314.464253414002</v>
+        <v>3982275.788774511</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,34 +4006,34 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>36.50365102253789</v>
+        <v>1116400.499560197</v>
       </c>
       <c r="G103">
-        <v>418.0432495114804</v>
+        <v>4841802.811952186</v>
       </c>
       <c r="H103">
-        <v>1608.004918723763</v>
+        <v>3986318.555005702</v>
       </c>
       <c r="I103">
-        <v>1041.249249785155</v>
+        <v>1117523.921348124</v>
       </c>
       <c r="J103">
-        <v>-479.3695948809093</v>
+        <v>4840893.560930539</v>
       </c>
       <c r="K103">
-        <v>-2764.923344673947</v>
+        <v>3981867.597430359</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,34 +4041,34 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>36.06658919071248</v>
+        <v>1116400.039438383</v>
       </c>
       <c r="G104">
-        <v>430.0064502217961</v>
+        <v>4841819.324775568</v>
       </c>
       <c r="H104">
-        <v>1613.940095472361</v>
+        <v>3986325.77372623</v>
       </c>
       <c r="I104">
-        <v>1126.465892161042</v>
+        <v>1117619.112283369</v>
       </c>
       <c r="J104">
-        <v>-548.9304217083961</v>
+        <v>4840844.909286399</v>
       </c>
       <c r="K104">
-        <v>-3232.099734724497</v>
+        <v>3981444.257415005</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,34 +4076,34 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>35.64485678542307</v>
+        <v>1116399.595454798</v>
       </c>
       <c r="G105">
-        <v>441.9696509321118</v>
+        <v>4841835.837598949</v>
       </c>
       <c r="H105">
-        <v>1619.735806724836</v>
+        <v>3986332.822820396</v>
       </c>
       <c r="I105">
-        <v>1213.780915957562</v>
+        <v>1117716.647207821</v>
       </c>
       <c r="J105">
-        <v>-618.491248535883</v>
+        <v>4840796.25764226</v>
       </c>
       <c r="K105">
-        <v>-3715.993423565653</v>
+        <v>3981005.768728446</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,34 +4111,34 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>35.23757830905116</v>
+        <v>1116399.166687751</v>
       </c>
       <c r="G106">
-        <v>453.9328516424275</v>
+        <v>4841852.350422331</v>
       </c>
       <c r="H106">
-        <v>1625.398456637383</v>
+        <v>3986339.710077321</v>
       </c>
       <c r="I106">
-        <v>1303.245991886721</v>
+        <v>1117816.583840057</v>
       </c>
       <c r="J106">
-        <v>-688.0520753633691</v>
+        <v>4840747.60599812</v>
       </c>
       <c r="K106">
-        <v>-4216.604411197412</v>
+        <v>3980552.131370686</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,34 +4146,34 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>34.84394669299608</v>
+        <v>1116398.752287591</v>
       </c>
       <c r="G107">
-        <v>465.8960523527432</v>
+        <v>4841868.863245713</v>
       </c>
       <c r="H107">
-        <v>1630.934018137119</v>
+        <v>3986346.442761641</v>
       </c>
       <c r="I107">
-        <v>1394.914063004276</v>
+        <v>1117918.981319922</v>
       </c>
       <c r="J107">
-        <v>-757.6129021908559</v>
+        <v>4840698.95435398</v>
       </c>
       <c r="K107">
-        <v>-4733.932697619779</v>
+        <v>3980083.345341722</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4190,34 +4181,34 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>320.9861901514107</v>
+        <v>1116576.933495036</v>
       </c>
       <c r="G108">
-        <v>-84.15534282180037</v>
+        <v>4841124.335808916</v>
       </c>
       <c r="H108">
-        <v>688.2260556745865</v>
+        <v>3985233.234019112</v>
       </c>
       <c r="I108">
-        <v>-1204.535267557172</v>
+        <v>1114862.318541358</v>
       </c>
       <c r="J108">
-        <v>2701.190766218812</v>
+        <v>4843225.423285282</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984370.356249425</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4225,34 +4216,34 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>320.9861901514107</v>
+        <v>1116576.933495036</v>
       </c>
       <c r="G109">
-        <v>-84.15534282180037</v>
+        <v>4841124.335808916</v>
       </c>
       <c r="H109">
-        <v>688.2260556745865</v>
+        <v>3985233.234019112</v>
       </c>
       <c r="I109">
-        <v>-1180.754534014588</v>
+        <v>1114891.932563351</v>
       </c>
       <c r="J109">
-        <v>2635.482155767284</v>
+        <v>4843176.771675463</v>
       </c>
       <c r="K109">
-        <v>303.6646244499515</v>
+        <v>3984674.152244076</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4260,34 +4251,34 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>320.9861901514107</v>
+        <v>1116576.933495036</v>
       </c>
       <c r="G110">
-        <v>-84.15534282180037</v>
+        <v>4841124.335808916</v>
       </c>
       <c r="H110">
-        <v>688.2260556745865</v>
+        <v>3985233.234019112</v>
       </c>
       <c r="I110">
-        <v>-1156.388221786391</v>
+        <v>1114922.275803392</v>
       </c>
       <c r="J110">
-        <v>2569.773545315756</v>
+        <v>4843128.120065643</v>
       </c>
       <c r="K110">
-        <v>592.1871387761609</v>
+        <v>3984962.799577883</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4295,34 +4286,34 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>320.9861901514107</v>
+        <v>1116576.933495036</v>
       </c>
       <c r="G111">
-        <v>-84.15534282180037</v>
+        <v>4841124.335808916</v>
       </c>
       <c r="H111">
-        <v>688.2260556745865</v>
+        <v>3985233.234019112</v>
       </c>
       <c r="I111">
-        <v>-1131.42191153617</v>
+        <v>1114953.366217804</v>
       </c>
       <c r="J111">
-        <v>2504.064934864228</v>
+        <v>4843079.468455823</v>
       </c>
       <c r="K111">
-        <v>865.5675429786298</v>
+        <v>3985236.298250845</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4330,34 +4321,34 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>320.9861901514107</v>
+        <v>1116576.933495036</v>
       </c>
       <c r="G112">
-        <v>-84.15534282180037</v>
+        <v>4841124.335808916</v>
       </c>
       <c r="H112">
-        <v>688.2260556745865</v>
+        <v>3985233.234019112</v>
       </c>
       <c r="I112">
-        <v>-1105.840828864623</v>
+        <v>1114985.222205068</v>
       </c>
       <c r="J112">
-        <v>2438.3563244127</v>
+        <v>4843030.816846005</v>
       </c>
       <c r="K112">
-        <v>1123.805837057357</v>
+        <v>3985494.648262964</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4365,34 +4356,34 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>320.9861901514107</v>
+        <v>1116576.933495036</v>
       </c>
       <c r="G113">
-        <v>-84.15534282180037</v>
+        <v>4841124.335808916</v>
       </c>
       <c r="H113">
-        <v>688.2260556745865</v>
+        <v>3985233.234019112</v>
       </c>
       <c r="I113">
-        <v>-1079.629835566453</v>
+        <v>1115017.862616712</v>
       </c>
       <c r="J113">
-        <v>2372.647713961172</v>
+        <v>4842982.165236185</v>
       </c>
       <c r="K113">
-        <v>1366.902021012344</v>
+        <v>3985737.849614238</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4400,34 +4391,34 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>320.9861901514107</v>
+        <v>1116576.933495036</v>
       </c>
       <c r="G114">
-        <v>-84.15534282180037</v>
+        <v>4841124.335808916</v>
       </c>
       <c r="H114">
-        <v>688.2260556745865</v>
+        <v>3985233.234019112</v>
       </c>
       <c r="I114">
-        <v>-1052.773420671987</v>
+        <v>1115051.306768463</v>
       </c>
       <c r="J114">
-        <v>2306.939103509644</v>
+        <v>4842933.513626365</v>
       </c>
       <c r="K114">
-        <v>1594.85609484359</v>
+        <v>3985965.902304668</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4435,34 +4426,34 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>320.9861901514107</v>
+        <v>1116576.933495036</v>
       </c>
       <c r="G115">
-        <v>-84.15534282180037</v>
+        <v>4841124.335808916</v>
       </c>
       <c r="H115">
-        <v>688.2260556745865</v>
+        <v>3985233.234019112</v>
       </c>
       <c r="I115">
-        <v>-1025.255691268194</v>
+        <v>1115085.574451684</v>
       </c>
       <c r="J115">
-        <v>2241.230493058115</v>
+        <v>4842884.862016547</v>
       </c>
       <c r="K115">
-        <v>1807.668058551095</v>
+        <v>3986178.806334254</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4470,34 +4461,34 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>320.9861901514107</v>
+        <v>1116576.933495036</v>
       </c>
       <c r="G116">
-        <v>-70.25892690486394</v>
+        <v>4841140.848627351</v>
       </c>
       <c r="H116">
-        <v>688.2260556745865</v>
+        <v>3985233.234019112</v>
       </c>
       <c r="I116">
-        <v>-997.0603630936789</v>
+        <v>1115120.685945078</v>
       </c>
       <c r="J116">
-        <v>2175.521882606587</v>
+        <v>4842836.210406727</v>
       </c>
       <c r="K116">
-        <v>2005.337912134857</v>
+        <v>3986376.561702996</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4505,34 +4496,34 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>249.1227286697147</v>
+        <v>1116528.252999731</v>
       </c>
       <c r="G117">
-        <v>-56.3625109879275</v>
+        <v>4841157.361445785</v>
       </c>
       <c r="H117">
-        <v>847.889869479548</v>
+        <v>3985432.488671162</v>
       </c>
       <c r="I117">
-        <v>-968.1707509020928</v>
+        <v>1115156.662026695</v>
       </c>
       <c r="J117">
-        <v>2109.81327215506</v>
+        <v>4842787.558796908</v>
       </c>
       <c r="K117">
-        <v>2187.865655594879</v>
+        <v>3986559.168410894</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4540,34 +4531,34 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>206.906550109606</v>
+        <v>1116499.655650816</v>
       </c>
       <c r="G118">
-        <v>-42.46609507099107</v>
+        <v>4841173.87426422</v>
       </c>
       <c r="H118">
-        <v>942.9938024992182</v>
+        <v>3985551.174932192</v>
       </c>
       <c r="I118">
-        <v>-938.569758588245</v>
+        <v>1115193.523986224</v>
       </c>
       <c r="J118">
-        <v>2044.104661703531</v>
+        <v>4842738.907187087</v>
       </c>
       <c r="K118">
-        <v>2355.25128893116</v>
+        <v>3986726.626457948</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4575,34 +4566,34 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>180.256601066906</v>
+        <v>1116481.602906173</v>
       </c>
       <c r="G119">
-        <v>-28.56967915405463</v>
+        <v>4841190.387082654</v>
       </c>
       <c r="H119">
-        <v>1010.958155599275</v>
+        <v>3985635.991981253</v>
       </c>
       <c r="I119">
-        <v>-908.2398690710817</v>
+        <v>1115231.293637594</v>
       </c>
       <c r="J119">
-        <v>1978.396051252003</v>
+        <v>4842690.255577269</v>
       </c>
       <c r="K119">
-        <v>2507.494812143701</v>
+        <v>3986878.935844157</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4610,34 +4601,34 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>161.671034783021</v>
+        <v>1116469.01299534</v>
       </c>
       <c r="G120">
-        <v>-14.6732632371182</v>
+        <v>4841206.899901088</v>
       </c>
       <c r="H120">
-        <v>1063.88196094636</v>
+        <v>3985702.038971915</v>
       </c>
       <c r="I120">
-        <v>-877.1631339275453</v>
+        <v>1115269.993331882</v>
       </c>
       <c r="J120">
-        <v>1912.687440800475</v>
+        <v>4842641.60396745</v>
       </c>
       <c r="K120">
-        <v>2644.5962252325</v>
+        <v>3987016.096569522</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4645,34 +4636,34 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>147.8056457610361</v>
+        <v>1116459.620544834</v>
       </c>
       <c r="G121">
-        <v>-0.7768473201817705</v>
+        <v>4841223.412719524</v>
       </c>
       <c r="H121">
-        <v>1107.230662670156</v>
+        <v>3985756.13658034</v>
       </c>
       <c r="I121">
-        <v>-845.3211627711715</v>
+        <v>1115309.645970538</v>
       </c>
       <c r="J121">
-        <v>1846.978830348947</v>
+        <v>4842592.95235763</v>
       </c>
       <c r="K121">
-        <v>2766.555528197557</v>
+        <v>3987138.108634043</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4680,34 +4671,34 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>136.9648477900174</v>
+        <v>1116452.276960154</v>
       </c>
       <c r="G122">
-        <v>13.11956859675467</v>
+        <v>4841239.925537957</v>
       </c>
       <c r="H122">
-        <v>1143.943848728352</v>
+        <v>3985801.953305741</v>
       </c>
       <c r="I122">
-        <v>-812.6951123691483</v>
+        <v>1115350.275018942</v>
       </c>
       <c r="J122">
-        <v>1781.270219897419</v>
+        <v>4842544.30074781</v>
       </c>
       <c r="K122">
-        <v>2873.372721038874</v>
+        <v>3987244.97203772</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4715,34 +4706,34 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>128.1938528870804</v>
+        <v>1116446.335465445</v>
       </c>
       <c r="G123">
-        <v>27.01598451369111</v>
+        <v>4841256.438356392</v>
       </c>
       <c r="H123">
-        <v>1175.785851166176</v>
+        <v>3985841.690970557</v>
       </c>
       <c r="I123">
-        <v>-779.2656754913911</v>
+        <v>1115391.904520285</v>
       </c>
       <c r="J123">
-        <v>1715.561609445891</v>
+        <v>4842495.649137991</v>
       </c>
       <c r="K123">
-        <v>2965.047803756449</v>
+        <v>3987336.686780553</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4750,34 +4741,34 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>120.910801837077</v>
+        <v>1116441.401907763</v>
       </c>
       <c r="G124">
-        <v>40.91240043062753</v>
+        <v>4841272.951174826</v>
       </c>
       <c r="H124">
-        <v>1203.899188434866</v>
+        <v>3985876.775396401</v>
       </c>
       <c r="I124">
-        <v>-745.0130694850374</v>
+        <v>1115434.5591098</v>
       </c>
       <c r="J124">
-        <v>1649.852998994363</v>
+        <v>4842446.997528172</v>
       </c>
       <c r="K124">
-        <v>3041.580776350284</v>
+        <v>3987413.252862542</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4785,34 +4776,34 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>114.7389640537036</v>
+        <v>1116437.221088831</v>
       </c>
       <c r="G125">
-        <v>54.80881634756398</v>
+        <v>4841289.463993261</v>
       </c>
       <c r="H125">
-        <v>1229.06628250568</v>
+        <v>3985908.183017531</v>
       </c>
       <c r="I125">
-        <v>-709.9170245675965</v>
+        <v>1115478.26402934</v>
       </c>
       <c r="J125">
-        <v>1584.144388542834</v>
+        <v>4842398.345918353</v>
       </c>
       <c r="K125">
-        <v>3102.971638820377</v>
+        <v>3987474.670283687</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4820,34 +4811,34 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>109.4225279300822</v>
+        <v>1116433.619721204</v>
       </c>
       <c r="G126">
-        <v>68.70523226450041</v>
+        <v>4841305.976811696</v>
       </c>
       <c r="H126">
-        <v>1251.846499741031</v>
+        <v>3985936.611902891</v>
       </c>
       <c r="I126">
-        <v>-673.9567718318331</v>
+        <v>1115523.045142316</v>
       </c>
       <c r="J126">
-        <v>1518.435778091306</v>
+        <v>4842349.694308533</v>
       </c>
       <c r="K126">
-        <v>3149.22039116673</v>
+        <v>3987520.939043988</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4855,34 +4846,34 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>104.7810044846855</v>
+        <v>1116430.475541177</v>
       </c>
       <c r="G127">
-        <v>82.60164818143683</v>
+        <v>4841322.48963013</v>
       </c>
       <c r="H127">
-        <v>1272.653627091363</v>
+        <v>3985962.578443597</v>
       </c>
       <c r="I127">
-        <v>-637.1110309552774</v>
+        <v>1115568.928949001</v>
       </c>
       <c r="J127">
-        <v>1452.727167639778</v>
+        <v>4842301.042698714</v>
       </c>
       <c r="K127">
-        <v>3180.327033389341</v>
+        <v>3987552.059143444</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4890,34 +4881,34 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>100.6829779741716</v>
+        <v>1116427.699527384</v>
       </c>
       <c r="G128">
-        <v>96.49806409837328</v>
+        <v>4841339.002448564</v>
       </c>
       <c r="H128">
-        <v>1291.802381430636</v>
+        <v>3985986.475394898</v>
       </c>
       <c r="I128">
-        <v>-599.3579976070965</v>
+        <v>1115615.942602214</v>
       </c>
       <c r="J128">
-        <v>1387.01855718825</v>
+        <v>4842252.391088895</v>
       </c>
       <c r="K128">
-        <v>3196.291565488211</v>
+        <v>3987568.030582056</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4925,34 +4916,34 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>97.03021465071508</v>
+        <v>1116425.225136029</v>
       </c>
       <c r="G129">
-        <v>110.3944800153097</v>
+        <v>4841355.515267</v>
       </c>
       <c r="H129">
-        <v>1309.537711520711</v>
+        <v>3986008.60844397</v>
       </c>
       <c r="I129">
-        <v>-560.6753305448705</v>
+        <v>1115664.113923385</v>
       </c>
       <c r="J129">
-        <v>1321.309946736722</v>
+        <v>4842203.739479075</v>
       </c>
       <c r="K129">
-        <v>3197.11398746334</v>
+        <v>3987568.853359825</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4960,34 +4951,34 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>93.74762992733297</v>
+        <v>1116423.001504618</v>
       </c>
       <c r="G130">
-        <v>124.2908959322462</v>
+        <v>4841372.028085434</v>
       </c>
       <c r="H130">
-        <v>1326.054008616517</v>
+        <v>3986029.220184055</v>
       </c>
       <c r="I130">
-        <v>-521.0401383936384</v>
+        <v>1115713.471419023</v>
       </c>
       <c r="J130">
-        <v>1255.601336285194</v>
+        <v>4842155.087869256</v>
       </c>
       <c r="K130">
-        <v>3182.794299314728</v>
+        <v>3987554.527476748</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4995,34 +4986,34 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>90.77672519571107</v>
+        <v>1116420.989006043</v>
       </c>
       <c r="G131">
-        <v>138.1873118491826</v>
+        <v>4841388.540903868</v>
       </c>
       <c r="H131">
-        <v>1341.508128758364</v>
+        <v>3986048.506365803</v>
       </c>
       <c r="I131">
-        <v>-480.42896609939</v>
+        <v>1115764.044297583</v>
       </c>
       <c r="J131">
-        <v>1189.892725833666</v>
+        <v>4842106.436259436</v>
       </c>
       <c r="K131">
-        <v>3153.332501042375</v>
+        <v>3987525.052932828</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5030,34 +5021,34 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>88.07116170580393</v>
+        <v>1116419.156250314</v>
       </c>
       <c r="G132">
-        <v>152.083727766119</v>
+        <v>4841405.053722302</v>
       </c>
       <c r="H132">
-        <v>1356.028474771739</v>
+        <v>3986066.627231286</v>
       </c>
       <c r="I132">
-        <v>-438.8177810489894</v>
+        <v>1115815.862486751</v>
       </c>
       <c r="J132">
-        <v>1124.184115382138</v>
+        <v>4842057.784649617</v>
       </c>
       <c r="K132">
-        <v>3108.72859264628</v>
+        <v>3987480.429728063</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5065,34 +5056,34 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>85.59369590315528</v>
+        <v>1116417.478008549</v>
       </c>
       <c r="G133">
-        <v>165.9801436830554</v>
+        <v>4841421.566540737</v>
       </c>
       <c r="H133">
-        <v>1369.721487403719</v>
+        <v>3986083.715614699</v>
       </c>
       <c r="I133">
-        <v>-396.181958848311</v>
+        <v>1115868.956651156</v>
       </c>
       <c r="J133">
-        <v>1058.47550493061</v>
+        <v>4842009.133039798</v>
       </c>
       <c r="K133">
-        <v>3048.982574126444</v>
+        <v>3987420.657862455</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5100,34 +5091,34 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>83.31400794454945</v>
+        <v>1116415.93374201</v>
       </c>
       <c r="G134">
-        <v>179.8765595999919</v>
+        <v>4841438.079359172</v>
       </c>
       <c r="H134">
-        <v>1382.676384854457</v>
+        <v>3986099.882857121</v>
       </c>
       <c r="I134">
-        <v>-352.4962687501783</v>
+        <v>1115923.358210514</v>
       </c>
       <c r="J134">
-        <v>992.7668944790815</v>
+        <v>4841960.481429978</v>
       </c>
       <c r="K134">
-        <v>2974.094445482868</v>
+        <v>3987345.737336002</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5135,34 +5126,34 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>81.20713146940689</v>
+        <v>1116414.506538418</v>
       </c>
       <c r="G135">
-        <v>193.7729755169283</v>
+        <v>4841454.592177606</v>
       </c>
       <c r="H135">
-        <v>1394.968688972372</v>
+        <v>3986115.223207083</v>
       </c>
       <c r="I135">
-        <v>-307.7348587234766</v>
+        <v>1115979.099358222</v>
       </c>
       <c r="J135">
-        <v>927.0582840275533</v>
+        <v>4841911.829820159</v>
       </c>
       <c r="K135">
-        <v>2884.06420671555</v>
+        <v>3987255.668148706</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5170,34 +5161,34 @@
         <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>79.25229744413541</v>
+        <v>1116413.182328776</v>
       </c>
       <c r="G136">
-        <v>207.6693914338647</v>
+        <v>4841471.10499604</v>
       </c>
       <c r="H136">
-        <v>1406.662892769471</v>
+        <v>3986129.817149523</v>
       </c>
       <c r="I136">
-        <v>-261.8712401546096</v>
+        <v>1116036.213080412</v>
       </c>
       <c r="J136">
-        <v>861.3496735760251</v>
+        <v>4841863.17821034</v>
       </c>
       <c r="K136">
-        <v>2778.891857824491</v>
+        <v>3987150.450300565</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5205,34 +5196,34 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>77.4320690189581</v>
+        <v>1116411.949301317</v>
       </c>
       <c r="G137">
-        <v>221.5658073508012</v>
+        <v>4841487.617814475</v>
       </c>
       <c r="H137">
-        <v>1417.814508567736</v>
+        <v>3986143.73396181</v>
       </c>
       <c r="I137">
-        <v>-214.8782721722397</v>
+        <v>1116094.733175467</v>
       </c>
       <c r="J137">
-        <v>795.6410631244971</v>
+        <v>4841814.52660052</v>
       </c>
       <c r="K137">
-        <v>2658.577398809692</v>
+        <v>3987030.08379158</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5240,34 +5231,34 @@
         <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>75.73168466662301</v>
+        <v>1116410.797456544</v>
       </c>
       <c r="G138">
-        <v>235.4622232677376</v>
+        <v>4841504.13063291</v>
       </c>
       <c r="H138">
-        <v>1428.471661718322</v>
+        <v>3986157.033702636</v>
       </c>
       <c r="I138">
-        <v>-166.7281455860419</v>
+        <v>1116154.694274025</v>
       </c>
       <c r="J138">
-        <v>729.9324526729689</v>
+        <v>4841765.874990701</v>
       </c>
       <c r="K138">
-        <v>2523.12082967115</v>
+        <v>3986894.568621751</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5275,34 +5266,34 @@
         <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D139" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>74.13855285827911</v>
+        <v>1116409.718264923</v>
       </c>
       <c r="G139">
-        <v>249.358639184674</v>
+        <v>4841520.643451344</v>
       </c>
       <c r="H139">
-        <v>1438.67634575999</v>
+        <v>3986169.768778415</v>
       </c>
       <c r="I139">
-        <v>-117.3923664299628</v>
+        <v>1116216.131859472</v>
       </c>
       <c r="J139">
-        <v>664.223842221441</v>
+        <v>4841717.223380881</v>
       </c>
       <c r="K139">
-        <v>2372.522150408869</v>
+        <v>3986743.904791078</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5310,34 +5301,34 @@
         <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>72.64185864360392</v>
+        <v>1116408.704400378</v>
       </c>
       <c r="G140">
-        <v>263.2550551016105</v>
+        <v>4841537.156269778</v>
       </c>
       <c r="H140">
-        <v>1448.465421817089</v>
+        <v>3986181.985190494</v>
       </c>
       <c r="I140">
-        <v>-66.84173910024985</v>
+        <v>1116279.082288939</v>
       </c>
       <c r="J140">
-        <v>598.5152317699128</v>
+        <v>4841668.571771062</v>
       </c>
       <c r="K140">
-        <v>2206.781361022845</v>
+        <v>3986578.09229956</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5345,34 +5336,34 @@
         <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D141" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>71.23225399459106</v>
+        <v>1116407.74953053</v>
       </c>
       <c r="G141">
-        <v>277.1514710185469</v>
+        <v>4841553.669088213</v>
       </c>
       <c r="H141">
-        <v>1457.871422334631</v>
+        <v>3986193.723538186</v>
       </c>
       <c r="I141">
-        <v>-15.0463490782673</v>
+        <v>1116343.582814818</v>
       </c>
       <c r="J141">
-        <v>532.8066213183845</v>
+        <v>4841619.920161243</v>
       </c>
       <c r="K141">
-        <v>2025.898461513081</v>
+        <v>3986397.131147198</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5380,34 +5371,34 @@
         <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>69.90161163013389</v>
+        <v>1116406.848149939</v>
       </c>
       <c r="G142">
-        <v>291.0478869354834</v>
+        <v>4841570.181906648</v>
       </c>
       <c r="H142">
-        <v>1466.923203392014</v>
+        <v>3986205.019832832</v>
       </c>
       <c r="I142">
-        <v>38.02445477212166</v>
+        <v>1116409.671606808</v>
       </c>
       <c r="J142">
-        <v>467.0980108668566</v>
+        <v>4841571.268551423</v>
       </c>
       <c r="K142">
-        <v>1829.873451879576</v>
+        <v>3986201.021333993</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5415,34 +5406,34 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>68.64282749984089</v>
+        <v>1116405.995446302</v>
       </c>
       <c r="G143">
-        <v>304.9443028524198</v>
+        <v>4841586.694725082</v>
       </c>
       <c r="H143">
-        <v>1475.646478588762</v>
+        <v>3986215.906164072</v>
       </c>
       <c r="I143">
-        <v>92.40207834308208</v>
+        <v>1116477.3877745</v>
       </c>
       <c r="J143">
-        <v>401.3894004153284</v>
+        <v>4841522.616941604</v>
       </c>
       <c r="K143">
-        <v>1618.706332122329</v>
+        <v>3985989.762859943</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5450,34 +5441,34 @@
         <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>67.44966095859709</v>
+        <v>1116405.187192191</v>
       </c>
       <c r="G144">
-        <v>318.8407187693562</v>
+        <v>4841603.207543517</v>
       </c>
       <c r="H144">
-        <v>1484.064259401637</v>
+        <v>3986226.411249394</v>
       </c>
       <c r="I144">
-        <v>148.1187008679815</v>
+        <v>1116546.771390523</v>
       </c>
       <c r="J144">
-        <v>335.6807899638005</v>
+        <v>4841473.965331785</v>
       </c>
       <c r="K144">
-        <v>1392.397102241342</v>
+        <v>3985763.355725049</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5485,34 +5476,34 @@
         <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>66.31660441966871</v>
+        <v>1116404.419656751</v>
       </c>
       <c r="G145">
-        <v>332.7371346862927</v>
+        <v>4841619.720361951</v>
       </c>
       <c r="H145">
-        <v>1492.197221011104</v>
+        <v>3986236.560890675</v>
       </c>
       <c r="I145">
-        <v>205.2072939642032</v>
+        <v>1116617.86351426</v>
       </c>
       <c r="J145">
-        <v>269.9721795122722</v>
+        <v>4841425.313721965</v>
       </c>
       <c r="K145">
-        <v>1150.945762236613</v>
+        <v>3985521.799929311</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5520,34 +5511,34 @@
         <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>65.23877627113787</v>
+        <v>1116403.689533166</v>
       </c>
       <c r="G146">
-        <v>346.6335506032291</v>
+        <v>4841636.233180386</v>
       </c>
       <c r="H146">
-        <v>1500.064008240057</v>
+        <v>3986246.378355977</v>
       </c>
       <c r="I146">
-        <v>263.7016411448772</v>
+        <v>1116690.706216139</v>
       </c>
       <c r="J146">
-        <v>204.263569060744</v>
+        <v>4841376.662112146</v>
       </c>
       <c r="K146">
-        <v>894.352312108143</v>
+        <v>3985265.095472729</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5555,34 +5546,34 @@
         <v>20</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>64.21183230452239</v>
+        <v>1116402.993878658</v>
       </c>
       <c r="G147">
-        <v>360.5299665201655</v>
+        <v>4841652.74599882</v>
       </c>
       <c r="H147">
-        <v>1507.681492997498</v>
+        <v>3986255.884700831</v>
       </c>
       <c r="I147">
-        <v>323.6363578110618</v>
+        <v>1116765.342602539</v>
       </c>
       <c r="J147">
-        <v>138.5549586092161</v>
+        <v>4841328.010502326</v>
       </c>
       <c r="K147">
-        <v>622.6167518559325</v>
+        <v>3984993.242355302</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5590,34 +5581,34 @@
         <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>63.23189198965762</v>
+        <v>1116402.330064546</v>
       </c>
       <c r="G148">
-        <v>374.4263824371019</v>
+        <v>4841669.258817255</v>
       </c>
       <c r="H148">
-        <v>1515.064992168902</v>
+        <v>3986265.099040156</v>
       </c>
       <c r="I148">
-        <v>385.0469117362242</v>
+        <v>1116841.816841289</v>
       </c>
       <c r="J148">
-        <v>72.84634815768787</v>
+        <v>4841279.358892508</v>
       </c>
       <c r="K148">
-        <v>335.7390814799801</v>
+        <v>3984706.240577032</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5625,34 +5616,34 @@
         <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>62.29547674257492</v>
+        <v>1116401.695734427</v>
       </c>
       <c r="G149">
-        <v>388.3227983540384</v>
+        <v>4841685.77163569</v>
       </c>
       <c r="H149">
-        <v>1522.228453028698</v>
+        <v>3986274.038779645</v>
       </c>
       <c r="I149">
-        <v>447.9696440551195</v>
+        <v>1116920.174187814</v>
       </c>
       <c r="J149">
-        <v>7.137737706159637</v>
+        <v>4841230.707282688</v>
       </c>
       <c r="K149">
-        <v>33.71930098028685</v>
+        <v>3984404.090137918</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5660,34 +5651,34 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>61.39945794751897</v>
+        <v>1116401.08876897</v>
       </c>
       <c r="G150">
-        <v>402.2192142709748</v>
+        <v>4841702.284454124</v>
       </c>
       <c r="H150">
-        <v>1529.184611816311</v>
+        <v>3986282.719813661</v>
       </c>
       <c r="I150">
-        <v>512.4417907695149</v>
+        <v>1117000.46101191</v>
       </c>
       <c r="J150">
-        <v>-58.57087274536828</v>
+        <v>4841182.055672868</v>
       </c>
       <c r="K150">
-        <v>-283.4425896431467</v>
+        <v>3984086.791037959</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5695,34 +5686,34 @@
         <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>60.54101296292564</v>
+        <v>1116400.50725611</v>
       </c>
       <c r="G151">
-        <v>416.1156301879112</v>
+        <v>4841718.797272558</v>
       </c>
       <c r="H151">
-        <v>1535.94513000609</v>
+        <v>3986291.156695303</v>
       </c>
       <c r="I151">
-        <v>578.5015047834652</v>
+        <v>1117082.724825186</v>
       </c>
       <c r="J151">
-        <v>-124.2794831968965</v>
+        <v>4841133.40406305</v>
       </c>
       <c r="K151">
-        <v>-615.7465903903222</v>
+        <v>3983754.343277156</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5730,34 +5721,34 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>59.7175877017066</v>
+        <v>1116399.949465701</v>
       </c>
       <c r="G152">
-        <v>430.0120461048477</v>
+        <v>4841735.310090993</v>
       </c>
       <c r="H152">
-        <v>1542.520711933526</v>
+        <v>3986299.362783193</v>
       </c>
       <c r="I152">
-        <v>646.1878784811869</v>
+        <v>1117167.014309183</v>
       </c>
       <c r="J152">
-        <v>-189.9880936484248</v>
+        <v>4841084.752453229</v>
       </c>
       <c r="K152">
-        <v>-963.1927012612397</v>
+        <v>3983406.746855509</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5765,34 +5756,34 @@
         <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>58.92686465572014</v>
+        <v>1116399.413827857</v>
       </c>
       <c r="G153">
-        <v>443.9084620217841</v>
+        <v>4841751.822909427</v>
       </c>
       <c r="H153">
-        <v>1548.921206757317</v>
+        <v>3986307.350368725</v>
       </c>
       <c r="I153">
-        <v>715.5409668608929</v>
+        <v>1117253.379344178</v>
       </c>
       <c r="J153">
-        <v>-255.696704099953</v>
+        <v>4841036.10084341</v>
       </c>
       <c r="K153">
-        <v>-1325.780922255898</v>
+        <v>3983044.001773018</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5800,34 +5791,34 @@
         <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>58.16673545263992</v>
+        <v>1116398.898914363</v>
       </c>
       <c r="G154">
-        <v>457.8048779387206</v>
+        <v>4841768.335727862</v>
       </c>
       <c r="H154">
-        <v>1555.15569719562</v>
+        <v>3986315.1307868</v>
       </c>
       <c r="I154">
-        <v>786.6018112382774</v>
+        <v>1117341.871038706</v>
       </c>
       <c r="J154">
-        <v>-321.4053145514806</v>
+        <v>4840987.449233591</v>
       </c>
       <c r="K154">
-        <v>-1703.511253374294</v>
+        <v>3982666.108029682</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5835,34 +5826,34 @@
         <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>57.43527720517764</v>
+        <v>1116398.403422648</v>
       </c>
       <c r="G155">
-        <v>471.701293855657</v>
+        <v>4841784.848546296</v>
       </c>
       <c r="H155">
-        <v>1561.232577043245</v>
+        <v>3986322.714512572</v>
       </c>
       <c r="I155">
-        <v>859.4124635336777</v>
+        <v>1117432.5417598</v>
       </c>
       <c r="J155">
-        <v>-387.1139250030088</v>
+        <v>4840938.797623772</v>
       </c>
       <c r="K155">
-        <v>-2096.383694616434</v>
+        <v>3982273.065625503</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5870,34 +5861,34 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>56.73073204859636</v>
+        <v>1116397.92616193</v>
       </c>
       <c r="G156">
-        <v>485.5977097725934</v>
+        <v>4841801.361364731</v>
       </c>
       <c r="H156">
-        <v>1567.159619129996</v>
+        <v>3986330.11124625</v>
       </c>
       <c r="I156">
-        <v>934.0160111572799</v>
+        <v>1117525.445163986</v>
       </c>
       <c r="J156">
-        <v>-452.822535454537</v>
+        <v>4840890.146013952</v>
       </c>
       <c r="K156">
-        <v>-2504.398245982316</v>
+        <v>3981864.874560479</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5905,34 +5896,34 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>56.05148937079826</v>
+        <v>1116397.466041177</v>
       </c>
       <c r="G157">
-        <v>499.4941256895298</v>
+        <v>4841817.874183166</v>
       </c>
       <c r="H157">
-        <v>1572.944035100679</v>
+        <v>3986337.329987705</v>
       </c>
       <c r="I157">
-        <v>1010.456602507108</v>
+        <v>1117620.636229031</v>
       </c>
       <c r="J157">
-        <v>-518.5311459060653</v>
+        <v>4840841.494404132</v>
       </c>
       <c r="K157">
-        <v>-2927.554907471938</v>
+        <v>3981441.534834612</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5940,34 +5931,34 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>55.39607032611387</v>
+        <v>1116397.022058615</v>
       </c>
       <c r="G158">
-        <v>513.3905416064663</v>
+        <v>4841834.387001599</v>
       </c>
       <c r="H158">
-        <v>1578.592528170105</v>
+        <v>3986344.379102306</v>
       </c>
       <c r="I158">
-        <v>1088.779473094872</v>
+        <v>1117718.171286478</v>
       </c>
       <c r="J158">
-        <v>-584.2397563575935</v>
+        <v>4840792.842794313</v>
       </c>
       <c r="K158">
-        <v>-3365.853679085301</v>
+        <v>3981003.0464479</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5975,34 +5966,34 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>54.76311429390905</v>
+        <v>1116396.593292557</v>
       </c>
       <c r="G159">
-        <v>527.2869575234027</v>
+        <v>4841850.899820034</v>
       </c>
       <c r="H159">
-        <v>1584.11133982104</v>
+        <v>3986351.266379197</v>
       </c>
       <c r="I159">
-        <v>1169.030972315138</v>
+        <v>1117818.108054984</v>
       </c>
       <c r="J159">
-        <v>-649.9483668091211</v>
+        <v>4840744.191184495</v>
       </c>
       <c r="K159">
-        <v>-3819.294560822403</v>
+        <v>3980549.409400344</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6010,1889 +6001,34 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>54.151366999851</v>
+        <v>1116396.178893352</v>
       </c>
       <c r="G160">
-        <v>541.1833734403391</v>
+        <v>4841867.41263847</v>
       </c>
       <c r="H160">
-        <v>1589.506291260918</v>
+        <v>3986357.999083035</v>
       </c>
       <c r="I160">
-        <v>1251.258590873679</v>
+        <v>1117920.505674475</v>
       </c>
       <c r="J160">
-        <v>-715.6569772606493</v>
+        <v>4840695.539574674</v>
       </c>
       <c r="K160">
-        <v>-4287.877552683249</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>20</v>
-      </c>
-      <c r="B161" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161">
-        <v>152.142</v>
-      </c>
-      <c r="F161">
-        <v>81.19782839606937</v>
-      </c>
-      <c r="G161">
-        <v>-112.3428575064111</v>
-      </c>
-      <c r="H161">
-        <v>965.9749498654388</v>
-      </c>
-      <c r="I161">
-        <v>-940.6950509770477</v>
-      </c>
-      <c r="J161">
-        <v>2287.495832741327</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>20</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" t="s">
-        <v>20</v>
-      </c>
-      <c r="E162">
-        <v>153.142</v>
-      </c>
-      <c r="F162">
-        <v>81.19782839606937</v>
-      </c>
-      <c r="G162">
-        <v>-112.3428575064111</v>
-      </c>
-      <c r="H162">
-        <v>965.9749498654388</v>
-      </c>
-      <c r="I162">
-        <v>-922.1232258469449</v>
-      </c>
-      <c r="J162">
-        <v>2231.850680069086</v>
-      </c>
-      <c r="K162">
-        <v>415.7516495924234</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>20</v>
-      </c>
-      <c r="B163" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" t="s">
-        <v>20</v>
-      </c>
-      <c r="E163">
-        <v>154.142</v>
-      </c>
-      <c r="F163">
-        <v>81.19782839606937</v>
-      </c>
-      <c r="G163">
-        <v>-112.3428575064111</v>
-      </c>
-      <c r="H163">
-        <v>965.9749498654388</v>
-      </c>
-      <c r="I163">
-        <v>-903.0940866087794</v>
-      </c>
-      <c r="J163">
-        <v>2176.205527396845</v>
-      </c>
-      <c r="K163">
-        <v>810.7720161990225</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>20</v>
-      </c>
-      <c r="B164" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164">
-        <v>155.142</v>
-      </c>
-      <c r="F164">
-        <v>81.19782839606937</v>
-      </c>
-      <c r="G164">
-        <v>-112.3428575064111</v>
-      </c>
-      <c r="H164">
-        <v>965.9749498654388</v>
-      </c>
-      <c r="I164">
-        <v>-883.596372323361</v>
-      </c>
-      <c r="J164">
-        <v>2120.560374724604</v>
-      </c>
-      <c r="K164">
-        <v>1185.0610998198</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>20</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165">
-        <v>156.142</v>
-      </c>
-      <c r="F165">
-        <v>81.19782839606937</v>
-      </c>
-      <c r="G165">
-        <v>-112.3428575064111</v>
-      </c>
-      <c r="H165">
-        <v>965.9749498654388</v>
-      </c>
-      <c r="I165">
-        <v>-863.6185447612327</v>
-      </c>
-      <c r="J165">
-        <v>2064.915222052362</v>
-      </c>
-      <c r="K165">
-        <v>1538.618900454754</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>20</v>
-      </c>
-      <c r="B166" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" t="s">
-        <v>20</v>
-      </c>
-      <c r="E166">
-        <v>157.142</v>
-      </c>
-      <c r="F166">
-        <v>81.19782839606937</v>
-      </c>
-      <c r="G166">
-        <v>-112.3428575064111</v>
-      </c>
-      <c r="H166">
-        <v>965.9749498654388</v>
-      </c>
-      <c r="I166">
-        <v>-843.1487815746508</v>
-      </c>
-      <c r="J166">
-        <v>2009.270069380121</v>
-      </c>
-      <c r="K166">
-        <v>1871.445418103887</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>20</v>
-      </c>
-      <c r="B167" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" t="s">
-        <v>20</v>
-      </c>
-      <c r="E167">
-        <v>158.142</v>
-      </c>
-      <c r="F167">
-        <v>81.19782839606937</v>
-      </c>
-      <c r="G167">
-        <v>-112.3428575064111</v>
-      </c>
-      <c r="H167">
-        <v>965.9749498654388</v>
-      </c>
-      <c r="I167">
-        <v>-822.1749693014364</v>
-      </c>
-      <c r="J167">
-        <v>1953.62491670788</v>
-      </c>
-      <c r="K167">
-        <v>2183.540652767197</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>20</v>
-      </c>
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" t="s">
-        <v>20</v>
-      </c>
-      <c r="E168">
-        <v>159.142</v>
-      </c>
-      <c r="F168">
-        <v>81.19782839606937</v>
-      </c>
-      <c r="G168">
-        <v>-112.3428575064111</v>
-      </c>
-      <c r="H168">
-        <v>965.9749498654388</v>
-      </c>
-      <c r="I168">
-        <v>-800.6846961965476</v>
-      </c>
-      <c r="J168">
-        <v>1897.979764035639</v>
-      </c>
-      <c r="K168">
-        <v>2474.904604444684</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>20</v>
-      </c>
-      <c r="B169" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" t="s">
-        <v>20</v>
-      </c>
-      <c r="E169">
-        <v>160.142</v>
-      </c>
-      <c r="F169">
-        <v>81.19782839606937</v>
-      </c>
-      <c r="G169">
-        <v>-93.79188948870613</v>
-      </c>
-      <c r="H169">
-        <v>965.9749498654388</v>
-      </c>
-      <c r="I169">
-        <v>-778.6652448871397</v>
-      </c>
-      <c r="J169">
-        <v>1842.334611363398</v>
-      </c>
-      <c r="K169">
-        <v>2745.537273136348</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>20</v>
-      </c>
-      <c r="B170" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170">
-        <v>161.142</v>
-      </c>
-      <c r="F170">
-        <v>63.01898708646096</v>
-      </c>
-      <c r="G170">
-        <v>-75.2409214710012</v>
-      </c>
-      <c r="H170">
-        <v>1190.074638134866</v>
-      </c>
-      <c r="I170">
-        <v>-756.1035848467612</v>
-      </c>
-      <c r="J170">
-        <v>1786.689458691157</v>
-      </c>
-      <c r="K170">
-        <v>2995.438658842188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>20</v>
-      </c>
-      <c r="B171" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171">
-        <v>162.142</v>
-      </c>
-      <c r="F171">
-        <v>52.33982976618935</v>
-      </c>
-      <c r="G171">
-        <v>-56.68995345329629</v>
-      </c>
-      <c r="H171">
-        <v>1323.559873361299</v>
-      </c>
-      <c r="I171">
-        <v>-732.9863646842352</v>
-      </c>
-      <c r="J171">
-        <v>1731.044306018916</v>
-      </c>
-      <c r="K171">
-        <v>3224.608761562208</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>20</v>
-      </c>
-      <c r="B172" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" t="s">
-        <v>17</v>
-      </c>
-      <c r="D172" t="s">
-        <v>20</v>
-      </c>
-      <c r="E172">
-        <v>163.142</v>
-      </c>
-      <c r="F172">
-        <v>45.59836220301344</v>
-      </c>
-      <c r="G172">
-        <v>-38.13898543559136</v>
-      </c>
-      <c r="H172">
-        <v>1418.952749055482</v>
-      </c>
-      <c r="I172">
-        <v>-709.2999042426592</v>
-      </c>
-      <c r="J172">
-        <v>1675.399153346675</v>
-      </c>
-      <c r="K172">
-        <v>3433.047581296405</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>20</v>
-      </c>
-      <c r="B173" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173">
-        <v>164.142</v>
-      </c>
-      <c r="F173">
-        <v>40.89689008967794</v>
-      </c>
-      <c r="G173">
-        <v>-19.58801741788643</v>
-      </c>
-      <c r="H173">
-        <v>1493.235130251772</v>
-      </c>
-      <c r="I173">
-        <v>-685.0301865038538</v>
-      </c>
-      <c r="J173">
-        <v>1619.754000674433</v>
-      </c>
-      <c r="K173">
-        <v>3620.755118044779</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>20</v>
-      </c>
-      <c r="B174" t="s">
-        <v>13</v>
-      </c>
-      <c r="C174" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174">
-        <v>165.142</v>
-      </c>
-      <c r="F174">
-        <v>37.38945110010393</v>
-      </c>
-      <c r="G174">
-        <v>-1.037049400181516</v>
-      </c>
-      <c r="H174">
-        <v>1554.078162318224</v>
-      </c>
-      <c r="I174">
-        <v>-660.162849293461</v>
-      </c>
-      <c r="J174">
-        <v>1564.108848002192</v>
-      </c>
-      <c r="K174">
-        <v>3787.73137180733</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>20</v>
-      </c>
-      <c r="B175" t="s">
-        <v>13</v>
-      </c>
-      <c r="C175" t="s">
-        <v>17</v>
-      </c>
-      <c r="D175" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175">
-        <v>166.142</v>
-      </c>
-      <c r="F175">
-        <v>34.64712360959098</v>
-      </c>
-      <c r="G175">
-        <v>17.51391861752341</v>
-      </c>
-      <c r="H175">
-        <v>1605.607769152428</v>
-      </c>
-      <c r="I175">
-        <v>-634.6831767817932</v>
-      </c>
-      <c r="J175">
-        <v>1508.463695329951</v>
-      </c>
-      <c r="K175">
-        <v>3933.976342584058</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>20</v>
-      </c>
-      <c r="B176" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176">
-        <v>167.142</v>
-      </c>
-      <c r="F176">
-        <v>32.42838099435404</v>
-      </c>
-      <c r="G176">
-        <v>36.06488663522834</v>
-      </c>
-      <c r="H176">
-        <v>1650.300318141063</v>
-      </c>
-      <c r="I176">
-        <v>-608.5760907753943</v>
-      </c>
-      <c r="J176">
-        <v>1452.81854265771</v>
-      </c>
-      <c r="K176">
-        <v>4059.490030374964</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>20</v>
-      </c>
-      <c r="B177" t="s">
-        <v>13</v>
-      </c>
-      <c r="C177" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177">
-        <v>168.142</v>
-      </c>
-      <c r="F177">
-        <v>30.58603404142427</v>
-      </c>
-      <c r="G177">
-        <v>54.61585465293326</v>
-      </c>
-      <c r="H177">
-        <v>1689.759416405011</v>
-      </c>
-      <c r="I177">
-        <v>-581.8261417941667</v>
-      </c>
-      <c r="J177">
-        <v>1397.173389985469</v>
-      </c>
-      <c r="K177">
-        <v>4164.272435180047</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>20</v>
-      </c>
-      <c r="B178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178">
-        <v>169.142</v>
-      </c>
-      <c r="F178">
-        <v>29.02478361820094</v>
-      </c>
-      <c r="G178">
-        <v>73.1668226706382</v>
-      </c>
-      <c r="H178">
-        <v>1725.083249661345</v>
-      </c>
-      <c r="I178">
-        <v>-554.4174999287781</v>
-      </c>
-      <c r="J178">
-        <v>1341.528237313228</v>
-      </c>
-      <c r="K178">
-        <v>4248.323556999308</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>20</v>
-      </c>
-      <c r="B179" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179" t="s">
-        <v>17</v>
-      </c>
-      <c r="D179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E179">
-        <v>170.142</v>
-      </c>
-      <c r="F179">
-        <v>27.67991869475721</v>
-      </c>
-      <c r="G179">
-        <v>91.71779068834311</v>
-      </c>
-      <c r="H179">
-        <v>1757.056928978489</v>
-      </c>
-      <c r="I179">
-        <v>-526.3339454729422</v>
-      </c>
-      <c r="J179">
-        <v>1285.883084640987</v>
-      </c>
-      <c r="K179">
-        <v>4311.643395832746</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>20</v>
-      </c>
-      <c r="B180" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180" t="s">
-        <v>17</v>
-      </c>
-      <c r="D180" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180">
-        <v>171.142</v>
-      </c>
-      <c r="F180">
-        <v>26.50578212508772</v>
-      </c>
-      <c r="G180">
-        <v>110.268758706048</v>
-      </c>
-      <c r="H180">
-        <v>1786.26123421128</v>
-      </c>
-      <c r="I180">
-        <v>-497.558859325028</v>
-      </c>
-      <c r="J180">
-        <v>1230.237931968746</v>
-      </c>
-      <c r="K180">
-        <v>4354.231951680361</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>20</v>
-      </c>
-      <c r="B181" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" t="s">
-        <v>20</v>
-      </c>
-      <c r="E181">
-        <v>172.142</v>
-      </c>
-      <c r="F181">
-        <v>25.46913050712781</v>
-      </c>
-      <c r="G181">
-        <v>128.819726723753</v>
-      </c>
-      <c r="H181">
-        <v>1813.137893210677</v>
-      </c>
-      <c r="I181">
-        <v>-468.0752131533151</v>
-      </c>
-      <c r="J181">
-        <v>1174.592779296505</v>
-      </c>
-      <c r="K181">
-        <v>4376.089224542155</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>20</v>
-      </c>
-      <c r="B182" t="s">
-        <v>13</v>
-      </c>
-      <c r="C182" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" t="s">
-        <v>20</v>
-      </c>
-      <c r="E182">
-        <v>173.142</v>
-      </c>
-      <c r="F182">
-        <v>24.54511427649317</v>
-      </c>
-      <c r="G182">
-        <v>147.3706947414579</v>
-      </c>
-      <c r="H182">
-        <v>1838.030709245975</v>
-      </c>
-      <c r="I182">
-        <v>-437.8655593190808</v>
-      </c>
-      <c r="J182">
-        <v>1118.947626624264</v>
-      </c>
-      <c r="K182">
-        <v>4377.215214418125</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>20</v>
-      </c>
-      <c r="B183" t="s">
-        <v>13</v>
-      </c>
-      <c r="C183" t="s">
-        <v>17</v>
-      </c>
-      <c r="D183" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183">
-        <v>174.142</v>
-      </c>
-      <c r="F183">
-        <v>23.71473976430929</v>
-      </c>
-      <c r="G183">
-        <v>165.9216627591628</v>
-      </c>
-      <c r="H183">
-        <v>1861.212524475922</v>
-      </c>
-      <c r="I183">
-        <v>-406.9120205515506</v>
-      </c>
-      <c r="J183">
-        <v>1063.302473952022</v>
-      </c>
-      <c r="K183">
-        <v>4357.609921308272</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>20</v>
-      </c>
-      <c r="B184" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" t="s">
-        <v>17</v>
-      </c>
-      <c r="D184" t="s">
-        <v>20</v>
-      </c>
-      <c r="E184">
-        <v>175.142</v>
-      </c>
-      <c r="F184">
-        <v>22.9632089508948</v>
-      </c>
-      <c r="G184">
-        <v>184.4726307768678</v>
-      </c>
-      <c r="H184">
-        <v>1882.903497676004</v>
-      </c>
-      <c r="I184">
-        <v>-375.1962793686031</v>
-      </c>
-      <c r="J184">
-        <v>1007.657321279782</v>
-      </c>
-      <c r="K184">
-        <v>4317.273345212597</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>20</v>
-      </c>
-      <c r="B185" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" t="s">
-        <v>17</v>
-      </c>
-      <c r="D185" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185">
-        <v>176.142</v>
-      </c>
-      <c r="F185">
-        <v>22.27879981832582</v>
-      </c>
-      <c r="G185">
-        <v>203.0235987945727</v>
-      </c>
-      <c r="H185">
-        <v>1903.283851480759</v>
-      </c>
-      <c r="I185">
-        <v>-342.6995672369726</v>
-      </c>
-      <c r="J185">
-        <v>952.0121686075403</v>
-      </c>
-      <c r="K185">
-        <v>4256.205486131099</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>20</v>
-      </c>
-      <c r="B186" t="s">
-        <v>13</v>
-      </c>
-      <c r="C186" t="s">
-        <v>17</v>
-      </c>
-      <c r="D186" t="s">
-        <v>20</v>
-      </c>
-      <c r="E186">
-        <v>177.142</v>
-      </c>
-      <c r="F186">
-        <v>21.65209110227263</v>
-      </c>
-      <c r="G186">
-        <v>221.5745668122776</v>
-      </c>
-      <c r="H186">
-        <v>1922.502983162309</v>
-      </c>
-      <c r="I186">
-        <v>-309.4026534655277</v>
-      </c>
-      <c r="J186">
-        <v>896.367015935299</v>
-      </c>
-      <c r="K186">
-        <v>4174.406344063778</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>20</v>
-      </c>
-      <c r="B187" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" t="s">
-        <v>17</v>
-      </c>
-      <c r="D187" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187">
-        <v>178.142</v>
-      </c>
-      <c r="F187">
-        <v>21.07541298545973</v>
-      </c>
-      <c r="G187">
-        <v>240.1255348299825</v>
-      </c>
-      <c r="H187">
-        <v>1940.686116904931</v>
-      </c>
-      <c r="I187">
-        <v>-275.2858338250601</v>
-      </c>
-      <c r="J187">
-        <v>840.7218632630581</v>
-      </c>
-      <c r="K187">
-        <v>4071.875919010636</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>20</v>
-      </c>
-      <c r="B188" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188">
-        <v>179.142</v>
-      </c>
-      <c r="F188">
-        <v>20.54244988695495</v>
-      </c>
-      <c r="G188">
-        <v>258.6765028476875</v>
-      </c>
-      <c r="H188">
-        <v>1957.939253074551</v>
-      </c>
-      <c r="I188">
-        <v>-240.3289188878442</v>
-      </c>
-      <c r="J188">
-        <v>785.0767105908169</v>
-      </c>
-      <c r="K188">
-        <v>3948.61421097167</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>20</v>
-      </c>
-      <c r="B189" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189">
-        <v>180.142</v>
-      </c>
-      <c r="F189">
-        <v>20.04794799685208</v>
-      </c>
-      <c r="G189">
-        <v>277.2274708653924</v>
-      </c>
-      <c r="H189">
-        <v>1974.352912269053</v>
-      </c>
-      <c r="I189">
-        <v>-204.5112220800714</v>
-      </c>
-      <c r="J189">
-        <v>729.4315579185757</v>
-      </c>
-      <c r="K189">
-        <v>3804.621219946881</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>20</v>
-      </c>
-      <c r="B190" t="s">
-        <v>13</v>
-      </c>
-      <c r="C190" t="s">
-        <v>17</v>
-      </c>
-      <c r="D190" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190">
-        <v>181.142</v>
-      </c>
-      <c r="F190">
-        <v>19.58749642652291</v>
-      </c>
-      <c r="G190">
-        <v>295.7784388830973</v>
-      </c>
-      <c r="H190">
-        <v>1990.005010039587</v>
-      </c>
-      <c r="I190">
-        <v>-167.8115474400842</v>
-      </c>
-      <c r="J190">
-        <v>673.7864052463348</v>
-      </c>
-      <c r="K190">
-        <v>3639.896945936271</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>20</v>
-      </c>
-      <c r="B191" t="s">
-        <v>13</v>
-      </c>
-      <c r="C191" t="s">
-        <v>17</v>
-      </c>
-      <c r="D191" t="s">
-        <v>20</v>
-      </c>
-      <c r="E191">
-        <v>182.142</v>
-      </c>
-      <c r="F191">
-        <v>19.15736104660784</v>
-      </c>
-      <c r="G191">
-        <v>314.3294069008023</v>
-      </c>
-      <c r="H191">
-        <v>2004.963093790506</v>
-      </c>
-      <c r="I191">
-        <v>-130.2081770751689</v>
-      </c>
-      <c r="J191">
-        <v>618.1412525740935</v>
-      </c>
-      <c r="K191">
-        <v>3454.441388939837</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>20</v>
-      </c>
-      <c r="B192" t="s">
-        <v>13</v>
-      </c>
-      <c r="C192" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" t="s">
-        <v>20</v>
-      </c>
-      <c r="E192">
-        <v>183.142</v>
-      </c>
-      <c r="F192">
-        <v>18.7543566583966</v>
-      </c>
-      <c r="G192">
-        <v>332.8803749185071</v>
-      </c>
-      <c r="H192">
-        <v>2019.286104484836</v>
-      </c>
-      <c r="I192">
-        <v>-91.6788583094838</v>
-      </c>
-      <c r="J192">
-        <v>562.4960999018526</v>
-      </c>
-      <c r="K192">
-        <v>3248.254548957582</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>20</v>
-      </c>
-      <c r="B193" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" t="s">
-        <v>17</v>
-      </c>
-      <c r="D193" t="s">
-        <v>20</v>
-      </c>
-      <c r="E193">
-        <v>184.142</v>
-      </c>
-      <c r="F193">
-        <v>18.37574747291339</v>
-      </c>
-      <c r="G193">
-        <v>351.431342936212</v>
-      </c>
-      <c r="H193">
-        <v>2033.025779371477</v>
-      </c>
-      <c r="I193">
-        <v>-52.2007905155169</v>
-      </c>
-      <c r="J193">
-        <v>506.8509472296114</v>
-      </c>
-      <c r="K193">
-        <v>3021.336425989502</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>20</v>
-      </c>
-      <c r="B194" t="s">
-        <v>13</v>
-      </c>
-      <c r="C194" t="s">
-        <v>17</v>
-      </c>
-      <c r="D194" t="s">
-        <v>20</v>
-      </c>
-      <c r="E194">
-        <v>185.142</v>
-      </c>
-      <c r="F194">
-        <v>18.01916877916068</v>
-      </c>
-      <c r="G194">
-        <v>369.982310953917</v>
-      </c>
-      <c r="H194">
-        <v>2046.227780085415</v>
-      </c>
-      <c r="I194">
-        <v>-11.75061162128015</v>
-      </c>
-      <c r="J194">
-        <v>451.2057945573702</v>
-      </c>
-      <c r="K194">
-        <v>2773.687020035601</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>20</v>
-      </c>
-      <c r="B195" t="s">
-        <v>13</v>
-      </c>
-      <c r="C195" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" t="s">
-        <v>20</v>
-      </c>
-      <c r="E195">
-        <v>186.142</v>
-      </c>
-      <c r="F195">
-        <v>17.68256467069493</v>
-      </c>
-      <c r="G195">
-        <v>388.5332789716219</v>
-      </c>
-      <c r="H195">
-        <v>2058.932608217109</v>
-      </c>
-      <c r="I195">
-        <v>29.69561571474507</v>
-      </c>
-      <c r="J195">
-        <v>395.5606418851293</v>
-      </c>
-      <c r="K195">
-        <v>2505.306331095877</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>20</v>
-      </c>
-      <c r="B196" t="s">
-        <v>13</v>
-      </c>
-      <c r="C196" t="s">
-        <v>17</v>
-      </c>
-      <c r="D196" t="s">
-        <v>20</v>
-      </c>
-      <c r="E196">
-        <v>187.142</v>
-      </c>
-      <c r="F196">
-        <v>17.36413808121763</v>
-      </c>
-      <c r="G196">
-        <v>407.0842469893269</v>
-      </c>
-      <c r="H196">
-        <v>2071.176354659666</v>
-      </c>
-      <c r="I196">
-        <v>72.16241826908987</v>
-      </c>
-      <c r="J196">
-        <v>339.915489212888</v>
-      </c>
-      <c r="K196">
-        <v>2216.194359170331</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>20</v>
-      </c>
-      <c r="B197" t="s">
-        <v>13</v>
-      </c>
-      <c r="C197" t="s">
-        <v>17</v>
-      </c>
-      <c r="D197" t="s">
-        <v>20</v>
-      </c>
-      <c r="E197">
-        <v>188.142</v>
-      </c>
-      <c r="F197">
-        <v>17.06231035455392</v>
-      </c>
-      <c r="G197">
-        <v>425.6352150070318</v>
-      </c>
-      <c r="H197">
-        <v>2082.991317681845</v>
-      </c>
-      <c r="I197">
-        <v>115.6749267675938</v>
-      </c>
-      <c r="J197">
-        <v>284.2703365406471</v>
-      </c>
-      <c r="K197">
-        <v>1906.351104258963</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>20</v>
-      </c>
-      <c r="B198" t="s">
-        <v>13</v>
-      </c>
-      <c r="C198" t="s">
-        <v>17</v>
-      </c>
-      <c r="D198" t="s">
-        <v>20</v>
-      </c>
-      <c r="E198">
-        <v>189.142</v>
-      </c>
-      <c r="F198">
-        <v>16.77568827163018</v>
-      </c>
-      <c r="G198">
-        <v>444.1861830247367</v>
-      </c>
-      <c r="H198">
-        <v>2094.4065163919</v>
-      </c>
-      <c r="I198">
-        <v>160.2588907570992</v>
-      </c>
-      <c r="J198">
-        <v>228.6251838684059</v>
-      </c>
-      <c r="K198">
-        <v>1575.776566361769</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>20</v>
-      </c>
-      <c r="B199" t="s">
-        <v>13</v>
-      </c>
-      <c r="C199" t="s">
-        <v>17</v>
-      </c>
-      <c r="D199" t="s">
-        <v>20</v>
-      </c>
-      <c r="E199">
-        <v>190.142</v>
-      </c>
-      <c r="F199">
-        <v>16.50303696222781</v>
-      </c>
-      <c r="G199">
-        <v>462.7371510424416</v>
-      </c>
-      <c r="H199">
-        <v>2105.448120144669</v>
-      </c>
-      <c r="I199">
-        <v>205.9406938433518</v>
-      </c>
-      <c r="J199">
-        <v>172.9800311961647</v>
-      </c>
-      <c r="K199">
-        <v>1224.470745478755</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>20</v>
-      </c>
-      <c r="B200" t="s">
-        <v>13</v>
-      </c>
-      <c r="C200" t="s">
-        <v>17</v>
-      </c>
-      <c r="D200" t="s">
-        <v>20</v>
-      </c>
-      <c r="E200">
-        <v>191.142</v>
-      </c>
-      <c r="F200">
-        <v>16.2432574996463</v>
-      </c>
-      <c r="G200">
-        <v>481.2881190601466</v>
-      </c>
-      <c r="H200">
-        <v>2116.139809882363</v>
-      </c>
-      <c r="I200">
-        <v>252.7473693041144</v>
-      </c>
-      <c r="J200">
-        <v>117.3348785239237</v>
-      </c>
-      <c r="K200">
-        <v>852.4336416099185</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>20</v>
-      </c>
-      <c r="B201" t="s">
-        <v>13</v>
-      </c>
-      <c r="C201" t="s">
-        <v>17</v>
-      </c>
-      <c r="D201" t="s">
-        <v>20</v>
-      </c>
-      <c r="E201">
-        <v>192.142</v>
-      </c>
-      <c r="F201">
-        <v>15.9953682509305</v>
-      </c>
-      <c r="G201">
-        <v>499.8390870778514</v>
-      </c>
-      <c r="H201">
-        <v>2126.503083959422</v>
-      </c>
-      <c r="I201">
-        <v>300.7066160867474</v>
-      </c>
-      <c r="J201">
-        <v>61.68972585168253</v>
-      </c>
-      <c r="K201">
-        <v>459.6652547552582</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>20</v>
-      </c>
-      <c r="B202" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" t="s">
-        <v>17</v>
-      </c>
-      <c r="D202" t="s">
-        <v>20</v>
-      </c>
-      <c r="E202">
-        <v>193.142</v>
-      </c>
-      <c r="F202">
-        <v>15.75848926088978</v>
-      </c>
-      <c r="G202">
-        <v>518.3900550955565</v>
-      </c>
-      <c r="H202">
-        <v>2136.557518382311</v>
-      </c>
-      <c r="I202">
-        <v>349.8468151997044</v>
-      </c>
-      <c r="J202">
-        <v>6.044573179441329</v>
-      </c>
-      <c r="K202">
-        <v>46.16558491477559</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>20</v>
-      </c>
-      <c r="B203" t="s">
-        <v>13</v>
-      </c>
-      <c r="C203" t="s">
-        <v>17</v>
-      </c>
-      <c r="D203" t="s">
-        <v>20</v>
-      </c>
-      <c r="E203">
-        <v>194.142</v>
-      </c>
-      <c r="F203">
-        <v>15.53182910355937</v>
-      </c>
-      <c r="G203">
-        <v>536.9410231132614</v>
-      </c>
-      <c r="H203">
-        <v>2146.320989382453</v>
-      </c>
-      <c r="I203">
-        <v>400.1970465076633</v>
-      </c>
-      <c r="J203">
-        <v>-49.60057949279962</v>
-      </c>
-      <c r="K203">
-        <v>-388.0653679115284</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>20</v>
-      </c>
-      <c r="B204" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" t="s">
-        <v>17</v>
-      </c>
-      <c r="D204" t="s">
-        <v>20</v>
-      </c>
-      <c r="E204">
-        <v>195.142</v>
-      </c>
-      <c r="F204">
-        <v>15.31467375331332</v>
-      </c>
-      <c r="G204">
-        <v>555.4919911309662</v>
-      </c>
-      <c r="H204">
-        <v>2155.809864680896</v>
-      </c>
-      <c r="I204">
-        <v>451.7871059402175</v>
-      </c>
-      <c r="J204">
-        <v>-105.2457321650408</v>
-      </c>
-      <c r="K204">
-        <v>-843.0276037236563</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>20</v>
-      </c>
-      <c r="B205" t="s">
-        <v>13</v>
-      </c>
-      <c r="C205" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" t="s">
-        <v>20</v>
-      </c>
-      <c r="E205">
-        <v>196.142</v>
-      </c>
-      <c r="F205">
-        <v>15.10637711903783</v>
-      </c>
-      <c r="G205">
-        <v>574.0429591486712</v>
-      </c>
-      <c r="H205">
-        <v>2165.039168585216</v>
-      </c>
-      <c r="I205">
-        <v>504.6475231243144</v>
-      </c>
-      <c r="J205">
-        <v>-160.890884837282</v>
-      </c>
-      <c r="K205">
-        <v>-1318.721122521608</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>20</v>
-      </c>
-      <c r="B206" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" t="s">
-        <v>20</v>
-      </c>
-      <c r="E206">
-        <v>197.142</v>
-      </c>
-      <c r="F206">
-        <v>14.90635295548568</v>
-      </c>
-      <c r="G206">
-        <v>592.5939271663761</v>
-      </c>
-      <c r="H206">
-        <v>2174.022725100618</v>
-      </c>
-      <c r="I206">
-        <v>558.8095794508774</v>
-      </c>
-      <c r="J206">
-        <v>-216.5360375095232</v>
-      </c>
-      <c r="K206">
-        <v>-1815.145924305381</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207">
-        <v>20</v>
-      </c>
-      <c r="B207" t="s">
-        <v>13</v>
-      </c>
-      <c r="C207" t="s">
-        <v>17</v>
-      </c>
-      <c r="D207" t="s">
-        <v>20</v>
-      </c>
-      <c r="E207">
-        <v>198.142</v>
-      </c>
-      <c r="F207">
-        <v>14.71406792116245</v>
-      </c>
-      <c r="G207">
-        <v>611.144895184081</v>
-      </c>
-      <c r="H207">
-        <v>2182.77328247769</v>
-      </c>
-      <c r="I207">
-        <v>614.3053265863036</v>
-      </c>
-      <c r="J207">
-        <v>-272.1811901817639</v>
-      </c>
-      <c r="K207">
-        <v>-2332.302009074974</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208">
-        <v>20</v>
-      </c>
-      <c r="B208" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" t="s">
-        <v>17</v>
-      </c>
-      <c r="D208" t="s">
-        <v>20</v>
-      </c>
-      <c r="E208">
-        <v>199.142</v>
-      </c>
-      <c r="F208">
-        <v>14.52903559554023</v>
-      </c>
-      <c r="G208">
-        <v>629.695863201786</v>
-      </c>
-      <c r="H208">
-        <v>2191.302622013367</v>
-      </c>
-      <c r="I208">
-        <v>671.1676054397891</v>
-      </c>
-      <c r="J208">
-        <v>-327.8263428540051</v>
-      </c>
-      <c r="K208">
-        <v>-2870.189376830392</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209">
-        <v>20</v>
-      </c>
-      <c r="B209" t="s">
-        <v>13</v>
-      </c>
-      <c r="C209" t="s">
-        <v>17</v>
-      </c>
-      <c r="D209" t="s">
-        <v>20</v>
-      </c>
-      <c r="E209">
-        <v>200.142</v>
-      </c>
-      <c r="F209">
-        <v>14.35081130279298</v>
-      </c>
-      <c r="G209">
-        <v>648.2468312194909</v>
-      </c>
-      <c r="H209">
-        <v>2199.621653435372</v>
-      </c>
-      <c r="I209">
-        <v>729.430065597704</v>
-      </c>
-      <c r="J209">
-        <v>-383.4714955262463</v>
-      </c>
-      <c r="K209">
-        <v>-3428.808027571634</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210">
-        <v>20</v>
-      </c>
-      <c r="B210" t="s">
-        <v>13</v>
-      </c>
-      <c r="C210" t="s">
-        <v>17</v>
-      </c>
-      <c r="D210" t="s">
-        <v>20</v>
-      </c>
-      <c r="E210">
-        <v>201.142</v>
-      </c>
-      <c r="F210">
-        <v>14.1789876166552</v>
-      </c>
-      <c r="G210">
-        <v>666.7977992371958</v>
-      </c>
-      <c r="H210">
-        <v>2207.740498807775</v>
-      </c>
-      <c r="I210">
-        <v>789.127185236527</v>
-      </c>
-      <c r="J210">
-        <v>-439.1166481984876</v>
-      </c>
-      <c r="K210">
-        <v>-4008.157961298698</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211">
-        <v>20</v>
-      </c>
-      <c r="B211" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" t="s">
-        <v>17</v>
-      </c>
-      <c r="D211" t="s">
-        <v>20</v>
-      </c>
-      <c r="E211">
-        <v>202.142</v>
-      </c>
-      <c r="F211">
-        <v>14.01319044297401</v>
-      </c>
-      <c r="G211">
-        <v>685.3487672549007</v>
-      </c>
-      <c r="H211">
-        <v>2215.668566576448</v>
-      </c>
-      <c r="I211">
-        <v>850.2942915261136</v>
-      </c>
-      <c r="J211">
-        <v>-494.7618008707287</v>
-      </c>
-      <c r="K211">
-        <v>-4608.239178011584</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212">
-        <v>20</v>
-      </c>
-      <c r="B212" t="s">
-        <v>13</v>
-      </c>
-      <c r="C212" t="s">
-        <v>17</v>
-      </c>
-      <c r="D212" t="s">
-        <v>20</v>
-      </c>
-      <c r="E212">
-        <v>203.142</v>
-      </c>
-      <c r="F212">
-        <v>13.85307559422933</v>
-      </c>
-      <c r="G212">
-        <v>703.8997352726057</v>
-      </c>
-      <c r="H212">
-        <v>2223.414617113002</v>
-      </c>
-      <c r="I212">
-        <v>912.9675815353739</v>
-      </c>
-      <c r="J212">
-        <v>-550.4069535429694</v>
-      </c>
-      <c r="K212">
-        <v>-5229.051677710288</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213">
-        <v>20</v>
-      </c>
-      <c r="B213" t="s">
-        <v>13</v>
-      </c>
-      <c r="C213" t="s">
-        <v>17</v>
-      </c>
-      <c r="D213" t="s">
-        <v>20</v>
-      </c>
-      <c r="E213">
-        <v>204.142</v>
-      </c>
-      <c r="F213">
-        <v>13.69832578464638</v>
-      </c>
-      <c r="G213">
-        <v>722.4507032903106</v>
-      </c>
-      <c r="H213">
-        <v>2230.986820902284</v>
-      </c>
-      <c r="I213">
-        <v>977.1841436527438</v>
-      </c>
-      <c r="J213">
-        <v>-606.0521062152106</v>
-      </c>
-      <c r="K213">
-        <v>-5870.595460394821</v>
+        <v>3980080.623691944</v>
       </c>
     </row>
   </sheetData>
